--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="120">
   <si>
     <t>Day</t>
   </si>
@@ -411,6 +411,21 @@
   <si>
     <t>with a small help from the editorial 
 (Very slow, I couldn't get the logic unfortunately)</t>
+  </si>
+  <si>
+    <t>15/01/2024</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1921</t>
+  </si>
+  <si>
+    <t>I participated official in this Div3 contest
+I solved 5/7 problems. I was really slow on implementation 
+heavy problem, I could have done E faster, bad performance because of this
+I took place 710 / 14257</t>
+  </si>
+  <si>
+    <t>16/01/2024</t>
   </si>
 </sst>
 </file>
@@ -418,10 +433,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -470,37 +485,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -517,7 +501,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,38 +577,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,9 +591,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -598,7 +613,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,13 +649,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,31 +751,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,61 +775,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,49 +787,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,17 +825,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -855,6 +864,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -874,156 +898,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1382,8 +1397,8 @@
   <sheetPr/>
   <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C41" workbookViewId="0">
-      <selection activeCell="K65" sqref="K63:K65"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -1502,7 +1517,7 @@
       <c r="E6" s="2">
         <v>1700</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="2">
@@ -1532,7 +1547,7 @@
       <c r="E7" s="2">
         <v>1700</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="2">
@@ -1562,7 +1577,7 @@
       <c r="E8" s="2">
         <v>1500</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="2">
@@ -1672,7 +1687,7 @@
       <c r="E12" s="2">
         <v>1700</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G12" s="2">
@@ -1702,7 +1717,7 @@
       <c r="E13" s="2">
         <v>1700</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="2">
@@ -1732,7 +1747,7 @@
       <c r="E14" s="2">
         <v>1700</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="4" t="s">
         <v>34</v>
       </c>
       <c r="G14" s="2">
@@ -1762,7 +1777,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="4" t="s">
         <v>39</v>
       </c>
       <c r="G15" s="2">
@@ -1808,7 +1823,7 @@
       <c r="E17" s="2">
         <v>1700</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G17" s="2">
@@ -1888,7 +1903,7 @@
       <c r="E20" s="2">
         <v>1700</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="4" t="s">
         <v>45</v>
       </c>
       <c r="G20" s="2">
@@ -1918,7 +1933,7 @@
       <c r="E21" s="2">
         <v>1700</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="4" t="s">
         <v>48</v>
       </c>
       <c r="G21" s="2">
@@ -2066,7 +2081,7 @@
       <c r="E26" s="2">
         <v>1700</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="4" t="s">
         <v>59</v>
       </c>
       <c r="G26" s="2">
@@ -2116,7 +2131,7 @@
       <c r="E28" s="2">
         <v>1700</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="4" t="s">
         <v>61</v>
       </c>
       <c r="G28" s="2">
@@ -2146,7 +2161,7 @@
       <c r="E29" s="2">
         <v>1700</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="4" t="s">
         <v>64</v>
       </c>
       <c r="G29" s="2">
@@ -2224,7 +2239,7 @@
         <v>38</v>
       </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="4" t="s">
         <v>70</v>
       </c>
       <c r="G32" s="2">
@@ -2266,7 +2281,7 @@
         <v>38</v>
       </c>
       <c r="E34" s="2"/>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="4" t="s">
         <v>72</v>
       </c>
       <c r="G34" s="2">
@@ -2944,20 +2959,38 @@
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
+      <c r="K60" s="5"/>
+    </row>
+    <row r="61" ht="90" spans="1:11">
+      <c r="A61" s="2">
+        <v>14</v>
+      </c>
+      <c r="B61" s="2">
+        <v>1319</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
+      <c r="F61" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G61" s="2">
+        <v>135</v>
+      </c>
+      <c r="H61" s="2">
+        <v>100</v>
+      </c>
+      <c r="I61" s="2">
+        <v>100</v>
+      </c>
       <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
+      <c r="K61" s="5" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="2"/>
@@ -2973,10 +3006,16 @@
       <c r="K62" s="2"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="2"/>
+      <c r="A63" s="2">
+        <v>15</v>
+      </c>
       <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
+      <c r="C63" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -3328,7 +3367,7 @@
     <mergeCell ref="A1:M3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F11" r:id="rId1" display="https://codeforces.com/contest/1093/problem/D"/>
+    <hyperlink ref="F11" r:id="rId1" display="https://codeforces.com/contest/1093/problem/D" tooltip="https://codeforces.com/contest/1093/problem/D"/>
     <hyperlink ref="F9" r:id="rId2" display="https://codeforces.com/problemset/problem/1430/D"/>
     <hyperlink ref="F18" r:id="rId3" display="https://codeforces.com/problemset/problem/1368/D "/>
     <hyperlink ref="F22" r:id="rId4" display="https://codeforces.com/problemset/problem/464/A"/>
@@ -3354,6 +3393,22 @@
     <hyperlink ref="F56" r:id="rId24" display="https://codeforces.com/contest/1920"/>
     <hyperlink ref="F58" r:id="rId25" display="https://codeforces.com/contest/1157/problem/C2"/>
     <hyperlink ref="F59" r:id="rId26" display="https://codeforces.com/problemset/problem/582/A"/>
+    <hyperlink ref="F61" r:id="rId27" display="https://codeforces.com/contest/1921"/>
+    <hyperlink ref="F29" r:id="rId28" display="https://codeforces.com/contest/1709/problem/D"/>
+    <hyperlink ref="F32" r:id="rId29" display="https://codeforces.com/contest/1919"/>
+    <hyperlink ref="F34" r:id="rId30" display="https://codeforces.com/contest/1547" tooltip="https://codeforces.com/contest/1547"/>
+    <hyperlink ref="F28" r:id="rId31" display="https://codeforces.com/contest/339/problem/D"/>
+    <hyperlink ref="F26" r:id="rId32" display="https://codeforces.com/contest/622/problem/C"/>
+    <hyperlink ref="F21" r:id="rId33" display="https://codeforces.com/contest/1260/problem/C"/>
+    <hyperlink ref="F20" r:id="rId34" display="https://codeforces.com/problemset/problem/1693/B"/>
+    <hyperlink ref="F17" r:id="rId35" display="https://codeforces.com/problemset/problem/1743/D"/>
+    <hyperlink ref="F15" r:id="rId36" display="https://codeforces.com/contest/1543"/>
+    <hyperlink ref="F14" r:id="rId37" display="https://codeforces.com/problemset/problem/1618/E"/>
+    <hyperlink ref="F13" r:id="rId38" display="https://codeforces.com/contest/1889/problem/B"/>
+    <hyperlink ref="F12" r:id="rId39" display="https://codeforces.com/contest/1000/problem/C"/>
+    <hyperlink ref="F8" r:id="rId40" display="https://codeforces.com/contest/276/problem/C"/>
+    <hyperlink ref="F7" r:id="rId41" display="https://codeforces.com/problemset/problem/276/D"/>
+    <hyperlink ref="F6" r:id="rId42" display="https://codeforces.com/problemset/problem/1699/C"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="127">
   <si>
     <t>Day</t>
   </si>
@@ -426,6 +426,33 @@
   </si>
   <si>
     <t>16/01/2024</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1921/problem/F</t>
+  </si>
+  <si>
+    <t>PrefixSum, Bruteforce</t>
+  </si>
+  <si>
+    <t>This was the problem that I didn't solved in 
+previous contest, I didn't have enough time then
+I could solve it after just a small hint about a
+number from where I can just precalculate all the 
+answers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimate complexity better and 
+understand the desired solution complexity
+</t>
+  </si>
+  <si>
+    <t>Total time spent this year in hours:</t>
+  </si>
+  <si>
+    <t>Average hours per day</t>
+  </si>
+  <si>
+    <t>Average solve time for 1700 rated problems</t>
   </si>
 </sst>
 </file>
@@ -433,9 +460,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -471,22 +498,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,13 +520,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -515,11 +528,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -538,16 +557,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,38 +596,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -607,7 +634,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,37 +646,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,7 +682,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,7 +706,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,7 +784,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,79 +808,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,21 +825,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -849,6 +861,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -860,6 +883,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -881,17 +919,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -903,142 +930,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1397,8 +1424,8 @@
   <sheetPr/>
   <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -3005,7 +3032,7 @@
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" ht="120" spans="1:12">
       <c r="A63" s="2">
         <v>15</v>
       </c>
@@ -3017,12 +3044,27 @@
         <v>13</v>
       </c>
       <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
+      <c r="F63" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G63" s="2">
+        <v>40</v>
+      </c>
+      <c r="H63" s="2">
+        <v>80</v>
+      </c>
+      <c r="I63" s="2">
+        <v>100</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="L63" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="2"/>
@@ -3212,8 +3254,13 @@
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
+      <c r="F78" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G78" s="2">
+        <f>SUM(G1:G77)/60</f>
+        <v>32.6333333333333</v>
+      </c>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
@@ -3225,8 +3272,13 @@
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
+      <c r="F79" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G79" s="2">
+        <f>G78/MAX(A6:A77)</f>
+        <v>2.17555555555556</v>
+      </c>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
@@ -3251,8 +3303,13 @@
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
+      <c r="F81" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G81" s="2">
+        <f>AVERAGEIFS(G:G,E:E,1700)</f>
+        <v>31.125</v>
+      </c>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
@@ -3409,6 +3466,7 @@
     <hyperlink ref="F8" r:id="rId40" display="https://codeforces.com/contest/276/problem/C"/>
     <hyperlink ref="F7" r:id="rId41" display="https://codeforces.com/problemset/problem/276/D"/>
     <hyperlink ref="F6" r:id="rId42" display="https://codeforces.com/problemset/problem/1699/C"/>
+    <hyperlink ref="F63" r:id="rId43" display="https://codeforces.com/contest/1921/problem/F"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="131">
   <si>
     <t>Day</t>
   </si>
@@ -444,6 +444,18 @@
     <t xml:space="preserve">Estimate complexity better and 
 understand the desired solution complexity
 </t>
+  </si>
+  <si>
+    <t>17/01/2024</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/489/problem/D</t>
+  </si>
+  <si>
+    <t>Brute Force, Graphs</t>
+  </si>
+  <si>
+    <t>Easy problem with Graphs</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -461,8 +473,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -498,6 +510,29 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -505,10 +540,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -529,95 +623,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -634,7 +646,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,109 +754,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,7 +784,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,43 +826,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,6 +840,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -837,11 +879,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -863,56 +922,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -930,142 +942,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1425,7 +1437,7 @@
   <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -3036,7 +3048,9 @@
       <c r="A63" s="2">
         <v>15</v>
       </c>
-      <c r="B63" s="2"/>
+      <c r="B63" s="2">
+        <v>1319</v>
+      </c>
       <c r="C63" s="2" t="s">
         <v>119</v>
       </c>
@@ -3080,17 +3094,39 @@
       <c r="K64" s="2"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
+      <c r="A65" s="2">
+        <v>16</v>
+      </c>
+      <c r="B65" s="2">
+        <v>1503</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="2">
+        <v>1700</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G65" s="2">
+        <v>20</v>
+      </c>
+      <c r="H65" s="2">
+        <v>100</v>
+      </c>
+      <c r="I65" s="2">
+        <v>100</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="2"/>
@@ -3255,11 +3291,11 @@
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G78" s="2">
         <f>SUM(G1:G77)/60</f>
-        <v>32.6333333333333</v>
+        <v>32.9666666666667</v>
       </c>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
@@ -3273,11 +3309,11 @@
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G79" s="2">
         <f>G78/MAX(A6:A77)</f>
-        <v>2.17555555555556</v>
+        <v>2.06041666666667</v>
       </c>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
@@ -3304,11 +3340,11 @@
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G81" s="2">
         <f>AVERAGEIFS(G:G,E:E,1700)</f>
-        <v>31.125</v>
+        <v>30.7878787878788</v>
       </c>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
@@ -3467,6 +3503,7 @@
     <hyperlink ref="F7" r:id="rId41" display="https://codeforces.com/problemset/problem/276/D"/>
     <hyperlink ref="F6" r:id="rId42" display="https://codeforces.com/problemset/problem/1699/C"/>
     <hyperlink ref="F63" r:id="rId43" display="https://codeforces.com/contest/1921/problem/F"/>
+    <hyperlink ref="F65" r:id="rId44" display="https://codeforces.com/contest/489/problem/D"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="135">
   <si>
     <t>Day</t>
   </si>
@@ -456,6 +456,22 @@
   </si>
   <si>
     <t>Easy problem with Graphs</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1611/problem/E1</t>
+  </si>
+  <si>
+    <t>Graphs, Shortest Path</t>
+  </si>
+  <si>
+    <t>It was not that hard but took a little too 
+long to came up with the solution, I also
+thought for a moment that it might be 
+done with LCA so I also spent 30 minutes making 
+a LCA template</t>
+  </si>
+  <si>
+    <t>I created a LCA template with a guided solution from TopCoder</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -473,9 +489,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -511,16 +527,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -533,7 +542,37 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -556,14 +595,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,47 +618,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -629,9 +631,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,7 +662,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,13 +686,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,7 +698,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,7 +710,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,19 +752,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,19 +770,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,25 +800,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,55 +836,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,21 +853,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -879,28 +880,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -920,11 +904,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -942,142 +958,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1434,10 +1450,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M89"/>
+  <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -3128,27 +3144,49 @@
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" ht="90" spans="1:11">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
+      <c r="D66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="2">
+        <v>1700</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G66" s="2">
+        <v>42</v>
+      </c>
+      <c r="H66" s="2">
+        <v>100</v>
+      </c>
+      <c r="I66" s="2">
+        <v>100</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
+      <c r="D67" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
+      <c r="F67" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G67" s="2">
+        <v>30</v>
+      </c>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
@@ -3290,13 +3328,8 @@
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
-      <c r="F78" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G78" s="2">
-        <f>SUM(G1:G77)/60</f>
-        <v>32.9666666666667</v>
-      </c>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
@@ -3308,13 +3341,8 @@
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
-      <c r="F79" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G79" s="2">
-        <f>G78/MAX(A6:A77)</f>
-        <v>2.06041666666667</v>
-      </c>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
@@ -3339,13 +3367,8 @@
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
-      <c r="F81" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G81" s="2">
-        <f>AVERAGEIFS(G:G,E:E,1700)</f>
-        <v>30.7878787878788</v>
-      </c>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
@@ -3435,8 +3458,13 @@
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
+      <c r="F88" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G88" s="2">
+        <f>SUM(G1:G87)/60</f>
+        <v>34.1666666666667</v>
+      </c>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
@@ -3448,12 +3476,152 @@
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
+      <c r="F89" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G89" s="2">
+        <f>G88/MAX(A6:A87)</f>
+        <v>2.13541666666667</v>
+      </c>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G91" s="2">
+        <f>AVERAGEIFS(G:G,E:E,1700)</f>
+        <v>31.1176470588235</v>
+      </c>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3504,6 +3672,7 @@
     <hyperlink ref="F6" r:id="rId42" display="https://codeforces.com/problemset/problem/1699/C"/>
     <hyperlink ref="F63" r:id="rId43" display="https://codeforces.com/contest/1921/problem/F"/>
     <hyperlink ref="F65" r:id="rId44" display="https://codeforces.com/contest/489/problem/D"/>
+    <hyperlink ref="F66" r:id="rId45" display="https://codeforces.com/contest/1611/problem/E1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="137">
   <si>
     <t>Day</t>
   </si>
@@ -472,6 +472,13 @@
   </si>
   <si>
     <t>I created a LCA template with a guided solution from TopCoder</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1692/problem/H</t>
+  </si>
+  <si>
+    <t>Preety standard array comprimation with 
+greedy logic</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -488,10 +495,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -526,34 +533,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -587,6 +577,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -594,8 +607,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,22 +639,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -633,21 +655,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -662,7 +669,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,7 +741,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,157 +849,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,35 +863,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -904,6 +887,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -915,21 +907,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -953,147 +930,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1453,7 +1460,7 @@
   <dimension ref="A1:M99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+      <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -3192,18 +3199,34 @@
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" ht="30" spans="1:11">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
+      <c r="D68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="2">
+        <v>1700</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G68" s="2">
+        <v>28</v>
+      </c>
+      <c r="H68" s="2">
+        <v>100</v>
+      </c>
+      <c r="I68" s="2">
+        <v>100</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="2"/>
@@ -3459,11 +3482,11 @@
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G88" s="2">
         <f>SUM(G1:G87)/60</f>
-        <v>34.1666666666667</v>
+        <v>34.6333333333333</v>
       </c>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
@@ -3477,11 +3500,11 @@
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G89" s="2">
         <f>G88/MAX(A6:A87)</f>
-        <v>2.13541666666667</v>
+        <v>2.16458333333333</v>
       </c>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
@@ -3508,11 +3531,11 @@
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G91" s="2">
         <f>AVERAGEIFS(G:G,E:E,1700)</f>
-        <v>31.1176470588235</v>
+        <v>31.0285714285714</v>
       </c>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
@@ -3673,6 +3696,7 @@
     <hyperlink ref="F63" r:id="rId43" display="https://codeforces.com/contest/1921/problem/F"/>
     <hyperlink ref="F65" r:id="rId44" display="https://codeforces.com/contest/489/problem/D"/>
     <hyperlink ref="F66" r:id="rId45" display="https://codeforces.com/contest/1611/problem/E1"/>
+    <hyperlink ref="F68" r:id="rId46" display="https://codeforces.com/contest/1692/problem/H"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="139">
   <si>
     <t>Day</t>
   </si>
@@ -479,6 +479,12 @@
   <si>
     <t>Preety standard array comprimation with 
 greedy logic</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/915/problem/C</t>
+  </si>
+  <si>
+    <t>Easy problem, good time I would say</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -495,9 +501,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -532,6 +538,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -547,17 +575,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -566,29 +588,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -609,22 +608,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -638,16 +629,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,6 +653,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -669,7 +675,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,43 +801,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,31 +825,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,85 +855,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,11 +869,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -887,11 +917,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -910,197 +966,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1459,8 +1465,8 @@
   <sheetPr/>
   <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -3232,14 +3238,30 @@
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
+      <c r="D69" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="2">
+        <v>1700</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G69" s="2">
+        <v>20</v>
+      </c>
+      <c r="H69" s="2">
+        <v>100</v>
+      </c>
+      <c r="I69" s="2">
+        <v>100</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="2"/>
@@ -3482,11 +3504,11 @@
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G88" s="2">
         <f>SUM(G1:G87)/60</f>
-        <v>34.6333333333333</v>
+        <v>34.9666666666667</v>
       </c>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
@@ -3500,11 +3522,11 @@
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G89" s="2">
         <f>G88/MAX(A6:A87)</f>
-        <v>2.16458333333333</v>
+        <v>2.18541666666667</v>
       </c>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
@@ -3531,11 +3553,11 @@
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G91" s="2">
         <f>AVERAGEIFS(G:G,E:E,1700)</f>
-        <v>31.0285714285714</v>
+        <v>30.7222222222222</v>
       </c>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
@@ -3697,6 +3719,7 @@
     <hyperlink ref="F65" r:id="rId44" display="https://codeforces.com/contest/489/problem/D"/>
     <hyperlink ref="F66" r:id="rId45" display="https://codeforces.com/contest/1611/problem/E1"/>
     <hyperlink ref="F68" r:id="rId46" display="https://codeforces.com/contest/1692/problem/H"/>
+    <hyperlink ref="F69" r:id="rId47" display="https://codeforces.com/contest/915/problem/C"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="142">
   <si>
     <t>Day</t>
   </si>
@@ -485,6 +485,18 @@
   </si>
   <si>
     <t>Easy problem, good time I would say</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1920/problem/E</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>I tried my best but coudn't find the idea
+I then red the editorial a little, I got the principle
+so I want to solve it alone in a few days, I really need to start stepping 
+up and get good at 2000-2300 rating problems</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -501,10 +513,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -539,7 +551,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -553,18 +565,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -583,6 +595,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -593,14 +612,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,6 +626,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -622,22 +642,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -658,9 +671,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -675,7 +687,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,37 +699,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,7 +747,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,19 +765,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,13 +813,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,73 +861,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,7 +900,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -897,22 +918,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -932,11 +938,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -971,118 +983,118 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1097,7 +1109,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1106,7 +1118,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1466,7 +1478,7 @@
   <dimension ref="A1:M99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+      <selection activeCell="K86" sqref="K86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -3263,18 +3275,32 @@
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" ht="105" spans="1:11">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
+      <c r="E70" s="2">
+        <v>2100</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G70" s="2">
+        <v>100</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0</v>
+      </c>
+      <c r="I70" s="2">
+        <v>0</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="2"/>
@@ -3504,11 +3530,11 @@
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G88" s="2">
         <f>SUM(G1:G87)/60</f>
-        <v>34.9666666666667</v>
+        <v>36.6333333333333</v>
       </c>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
@@ -3522,11 +3548,11 @@
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G89" s="2">
         <f>G88/MAX(A6:A87)</f>
-        <v>2.18541666666667</v>
+        <v>2.28958333333333</v>
       </c>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
@@ -3553,7 +3579,7 @@
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G91" s="2">
         <f>AVERAGEIFS(G:G,E:E,1700)</f>
@@ -3720,6 +3746,7 @@
     <hyperlink ref="F66" r:id="rId45" display="https://codeforces.com/contest/1611/problem/E1"/>
     <hyperlink ref="F68" r:id="rId46" display="https://codeforces.com/contest/1692/problem/H"/>
     <hyperlink ref="F69" r:id="rId47" display="https://codeforces.com/contest/915/problem/C"/>
+    <hyperlink ref="F70" r:id="rId48" display="https://codeforces.com/contest/1920/problem/E"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -513,9 +513,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -550,8 +550,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,6 +568,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -574,29 +596,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,42 +633,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -664,15 +662,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -687,13 +687,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,55 +759,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,13 +783,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,19 +795,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,13 +813,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,7 +849,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,31 +861,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -878,6 +878,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -905,20 +914,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -934,21 +940,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -978,147 +969,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1478,7 +1478,7 @@
   <dimension ref="A1:M99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="K86" sqref="K86"/>
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -3287,7 +3287,7 @@
         <v>136</v>
       </c>
       <c r="G70" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H70" s="2">
         <v>0</v>
@@ -3534,7 +3534,7 @@
       </c>
       <c r="G88" s="2">
         <f>SUM(G1:G87)/60</f>
-        <v>36.6333333333333</v>
+        <v>35.9666666666667</v>
       </c>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
@@ -3552,7 +3552,7 @@
       </c>
       <c r="G89" s="2">
         <f>G88/MAX(A6:A87)</f>
-        <v>2.28958333333333</v>
+        <v>2.24791666666667</v>
       </c>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="149">
   <si>
     <t>Day</t>
   </si>
@@ -497,6 +497,32 @@
 I then red the editorial a little, I got the principle
 so I want to solve it alone in a few days, I really need to start stepping 
 up and get good at 2000-2300 rating problems</t>
+  </si>
+  <si>
+    <t>18/01/2024</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1922</t>
+  </si>
+  <si>
+    <t>I solved A, B, C pretty fast. Unfortunately I 
+missunderstood problem D... I could have
+solved it for sure. I took place 2169 (I got
++103 but the performance of a 1650, bad)</t>
+  </si>
+  <si>
+    <t>Read problem statements better please</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1922/problem/D</t>
+  </si>
+  <si>
+    <t>I upsolved problem D from last contest
+It was an ok problem, I had the main idea but
+unfortunately that I understood it wrong</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -513,10 +539,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -551,21 +577,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -580,10 +591,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -595,6 +623,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -602,8 +645,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -625,16 +676,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,30 +699,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,7 +719,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,37 +797,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,49 +845,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,19 +869,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,43 +893,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -878,15 +904,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -901,6 +918,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -925,6 +951,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -955,21 +996,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -983,142 +1009,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1477,8 +1503,8 @@
   <sheetPr/>
   <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="K87" sqref="K86:K87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -3315,18 +3341,39 @@
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
     </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
+    <row r="72" ht="60" spans="1:12">
+      <c r="A72" s="2">
+        <v>17</v>
+      </c>
+      <c r="B72" s="2">
+        <v>1503</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
+      <c r="F72" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G72" s="2">
+        <v>120</v>
+      </c>
+      <c r="H72" s="2">
+        <v>100</v>
+      </c>
+      <c r="I72" s="2">
+        <v>100</v>
+      </c>
       <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
+      <c r="K72" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="L72" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="2"/>
@@ -3341,18 +3388,38 @@
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
     </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
+    <row r="74" ht="60" spans="1:11">
+      <c r="A74" s="2">
+        <v>18</v>
+      </c>
+      <c r="B74" s="2">
+        <v>1503</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="2">
+        <v>1900</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G74" s="2">
+        <v>31</v>
+      </c>
+      <c r="H74" s="2">
+        <v>80</v>
+      </c>
+      <c r="I74" s="2">
+        <v>100</v>
+      </c>
       <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
+      <c r="K74" s="5" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="2"/>
@@ -3530,11 +3597,11 @@
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="G88" s="2">
         <f>SUM(G1:G87)/60</f>
-        <v>35.9666666666667</v>
+        <v>38.4833333333333</v>
       </c>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
@@ -3548,11 +3615,11 @@
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="G89" s="2">
         <f>G88/MAX(A6:A87)</f>
-        <v>2.24791666666667</v>
+        <v>2.13796296296296</v>
       </c>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
@@ -3579,7 +3646,7 @@
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G91" s="2">
         <f>AVERAGEIFS(G:G,E:E,1700)</f>
@@ -3747,6 +3814,8 @@
     <hyperlink ref="F68" r:id="rId46" display="https://codeforces.com/contest/1692/problem/H"/>
     <hyperlink ref="F69" r:id="rId47" display="https://codeforces.com/contest/915/problem/C"/>
     <hyperlink ref="F70" r:id="rId48" display="https://codeforces.com/contest/1920/problem/E"/>
+    <hyperlink ref="F72" r:id="rId49" display="https://codeforces.com/contest/1922"/>
+    <hyperlink ref="F74" r:id="rId50" display="https://codeforces.com/contest/1922/problem/D"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="152">
   <si>
     <t>Day</t>
   </si>
@@ -523,6 +523,17 @@
     <t>I upsolved problem D from last contest
 It was an ok problem, I had the main idea but
 unfortunately that I understood it wrong</t>
+  </si>
+  <si>
+    <t>If elements are gone one by one we can
+update easily the left and right closest
+neighbour</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1023/problem/D</t>
+  </si>
+  <si>
+    <t>Beautiful Segment Tree problem</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -576,9 +587,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,27 +609,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -623,16 +624,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -647,39 +664,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -691,16 +686,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -713,7 +724,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,7 +796,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,91 +868,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,61 +898,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,54 +915,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -985,12 +948,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1004,147 +1006,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1154,7 +1165,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1178,6 +1189,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1501,10 +1515,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M99"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="K87" sqref="K86:K87"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -3388,12 +3402,12 @@
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
     </row>
-    <row r="74" ht="60" spans="1:11">
+    <row r="74" ht="60" spans="1:12">
       <c r="A74" s="2">
         <v>18</v>
       </c>
       <c r="B74" s="2">
-        <v>1503</v>
+        <v>1606</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>143</v>
@@ -3408,7 +3422,7 @@
         <v>144</v>
       </c>
       <c r="G74" s="2">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H74" s="2">
         <v>80</v>
@@ -3419,20 +3433,37 @@
       <c r="J74" s="2"/>
       <c r="K74" s="5" t="s">
         <v>145</v>
+      </c>
+      <c r="L74" s="9" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
+      <c r="D75" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="2">
+        <v>1700</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G75" s="2">
+        <v>21</v>
+      </c>
+      <c r="H75" s="2">
+        <v>100</v>
+      </c>
+      <c r="I75" s="2">
+        <v>100</v>
+      </c>
       <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
+      <c r="K75" s="2" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="2"/>
@@ -3596,13 +3627,8 @@
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
-      <c r="F88" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G88" s="2">
-        <f>SUM(G1:G87)/60</f>
-        <v>38.4833333333333</v>
-      </c>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
@@ -3614,13 +3640,8 @@
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
-      <c r="F89" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G89" s="2">
-        <f>G88/MAX(A6:A87)</f>
-        <v>2.13796296296296</v>
-      </c>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
@@ -3645,13 +3666,8 @@
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
-      <c r="F91" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G91" s="2">
-        <f>AVERAGEIFS(G:G,E:E,1700)</f>
-        <v>30.7222222222222</v>
-      </c>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
@@ -3741,8 +3757,13 @@
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
+      <c r="F98" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G98" s="2">
+        <f>SUM(G1:G97)/60</f>
+        <v>39.1666666666667</v>
+      </c>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
@@ -3754,12 +3775,152 @@
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
+      <c r="F99" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G99" s="2">
+        <f>G98/MAX(A6:A97)</f>
+        <v>2.17592592592593</v>
+      </c>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G101" s="2">
+        <f>AVERAGEIFS(G:G,E:E,1700)</f>
+        <v>30.4594594594595</v>
+      </c>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3816,6 +3977,7 @@
     <hyperlink ref="F70" r:id="rId48" display="https://codeforces.com/contest/1920/problem/E"/>
     <hyperlink ref="F72" r:id="rId49" display="https://codeforces.com/contest/1922"/>
     <hyperlink ref="F74" r:id="rId50" display="https://codeforces.com/contest/1922/problem/D"/>
+    <hyperlink ref="F75" r:id="rId51" display="https://codeforces.com/contest/1023/problem/D"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="154">
   <si>
     <t>Day</t>
   </si>
@@ -534,6 +534,12 @@
   </si>
   <si>
     <t>Beautiful Segment Tree problem</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1903/D1</t>
+  </si>
+  <si>
+    <t>Standard Bitmask problem, kinda slow time</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -550,8 +556,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -587,16 +593,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -604,13 +602,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -625,8 +616,23 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,6 +643,14 @@
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -656,7 +670,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,44 +692,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -714,6 +712,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -724,7 +730,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,25 +784,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,7 +802,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,37 +892,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,85 +904,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,6 +921,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -929,6 +959,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -948,32 +1007,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -988,174 +1021,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1165,7 +1171,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1189,9 +1195,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1518,7 +1521,7 @@
   <dimension ref="A1:M109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80"/>
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -3434,7 +3437,7 @@
       <c r="K74" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="L74" s="9" t="s">
+      <c r="L74" s="8" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3469,14 +3472,30 @@
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
+      <c r="D76" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="2">
+        <v>1700</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G76" s="2">
+        <v>32</v>
+      </c>
+      <c r="H76" s="2">
+        <v>100</v>
+      </c>
+      <c r="I76" s="2">
+        <v>100</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="2"/>
@@ -3758,11 +3777,11 @@
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G98" s="2">
         <f>SUM(G1:G97)/60</f>
-        <v>39.1666666666667</v>
+        <v>39.7</v>
       </c>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
@@ -3776,11 +3795,11 @@
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G99" s="2">
         <f>G98/MAX(A6:A97)</f>
-        <v>2.17592592592593</v>
+        <v>2.20555555555556</v>
       </c>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
@@ -3807,11 +3826,11 @@
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G101" s="2">
         <f>AVERAGEIFS(G:G,E:E,1700)</f>
-        <v>30.4594594594595</v>
+        <v>30.5</v>
       </c>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
@@ -3978,6 +3997,7 @@
     <hyperlink ref="F72" r:id="rId49" display="https://codeforces.com/contest/1922"/>
     <hyperlink ref="F74" r:id="rId50" display="https://codeforces.com/contest/1922/problem/D"/>
     <hyperlink ref="F75" r:id="rId51" display="https://codeforces.com/contest/1023/problem/D"/>
+    <hyperlink ref="F76" r:id="rId52" display="https://codeforces.com/problemset/problem/1903/D1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="156">
   <si>
     <t>Day</t>
   </si>
@@ -540,6 +540,14 @@
   </si>
   <si>
     <t>Standard Bitmask problem, kinda slow time</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1896/problem/D</t>
+  </si>
+  <si>
+    <t>I got stuck in a wrong aproch, I red a little bit
+from editorial so I don't know the solution but
+I know that it's not done with segment tree</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -556,10 +564,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -593,6 +601,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -601,7 +631,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,41 +662,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -670,21 +685,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -704,22 +728,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -730,7 +738,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,13 +750,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,7 +786,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,19 +798,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,37 +870,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,19 +900,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,49 +912,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,6 +929,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -965,15 +997,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1006,162 +1029,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1520,8 +1528,8 @@
   <sheetPr/>
   <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C70" workbookViewId="0">
+      <selection activeCell="I86" sqref="I82:I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -3497,18 +3505,28 @@
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" ht="75" spans="1:11">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
+      <c r="D77" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="2">
+        <v>1700</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G77" s="2">
+        <v>56</v>
+      </c>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
+      <c r="K77" s="5" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="2"/>
@@ -3777,11 +3795,11 @@
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G98" s="2">
         <f>SUM(G1:G97)/60</f>
-        <v>39.7</v>
+        <v>40.6333333333333</v>
       </c>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
@@ -3795,11 +3813,11 @@
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G99" s="2">
         <f>G98/MAX(A6:A97)</f>
-        <v>2.20555555555556</v>
+        <v>2.25740740740741</v>
       </c>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
@@ -3826,11 +3844,11 @@
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G101" s="2">
         <f>AVERAGEIFS(G:G,E:E,1700)</f>
-        <v>30.5</v>
+        <v>31.1538461538462</v>
       </c>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
@@ -3998,6 +4016,7 @@
     <hyperlink ref="F74" r:id="rId50" display="https://codeforces.com/contest/1922/problem/D"/>
     <hyperlink ref="F75" r:id="rId51" display="https://codeforces.com/contest/1023/problem/D"/>
     <hyperlink ref="F76" r:id="rId52" display="https://codeforces.com/problemset/problem/1903/D1"/>
+    <hyperlink ref="F77" r:id="rId53" display="https://codeforces.com/contest/1896/problem/D"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="163">
   <si>
     <t>Day</t>
   </si>
@@ -548,6 +548,31 @@
     <t>I got stuck in a wrong aproch, I red a little bit
 from editorial so I don't know the solution but
 I know that it's not done with segment tree</t>
+  </si>
+  <si>
+    <t>20/01/2023</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1530</t>
+  </si>
+  <si>
+    <t>I took place 1064 in this virtual contest with a
+performance of a 1940 rated coder so very good</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/900/problem/C</t>
+  </si>
+  <si>
+    <t>Ordered Set</t>
+  </si>
+  <si>
+    <t>I got through a wrong aproach with Segment
+tree at first, I wasted a lot of time, bad time</t>
+  </si>
+  <si>
+    <t>Think your solutions through the end and
+make sure the idea is correct before starting
+to implement</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -564,10 +589,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -601,21 +626,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -630,13 +640,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -645,9 +648,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -663,7 +689,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -678,14 +719,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -699,24 +733,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -738,37 +763,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,13 +787,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,7 +805,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,7 +859,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,13 +883,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,43 +919,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,31 +943,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,35 +957,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -997,20 +998,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1029,147 +1019,182 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1179,7 +1204,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1206,6 +1231,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1528,8 +1556,8 @@
   <sheetPr/>
   <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C70" workbookViewId="0">
-      <selection activeCell="I86" sqref="I82:I86"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -3541,31 +3569,68 @@
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
     </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
+    <row r="79" ht="60" spans="1:11">
+      <c r="A79" s="2">
+        <v>19</v>
+      </c>
+      <c r="B79" s="2">
+        <v>1606</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
+      <c r="F79" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G79" s="2">
+        <v>150</v>
+      </c>
+      <c r="H79" s="2">
+        <v>100</v>
+      </c>
+      <c r="I79" s="2">
+        <v>100</v>
+      </c>
       <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-    </row>
-    <row r="80" spans="1:11">
+      <c r="K79" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" ht="75" spans="1:12">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
+      <c r="D80" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="2">
+        <v>1700</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G80" s="2">
+        <v>50</v>
+      </c>
+      <c r="H80" s="2">
+        <v>100</v>
+      </c>
+      <c r="I80" s="2">
+        <v>100</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="L80" s="9" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="2"/>
@@ -3795,11 +3860,11 @@
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G98" s="2">
         <f>SUM(G1:G97)/60</f>
-        <v>40.6333333333333</v>
+        <v>43.9666666666667</v>
       </c>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
@@ -3813,11 +3878,11 @@
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G99" s="2">
         <f>G98/MAX(A6:A97)</f>
-        <v>2.25740740740741</v>
+        <v>2.3140350877193</v>
       </c>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
@@ -3844,11 +3909,11 @@
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G101" s="2">
         <f>AVERAGEIFS(G:G,E:E,1700)</f>
-        <v>31.1538461538462</v>
+        <v>31.625</v>
       </c>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
@@ -4017,6 +4082,8 @@
     <hyperlink ref="F75" r:id="rId51" display="https://codeforces.com/contest/1023/problem/D"/>
     <hyperlink ref="F76" r:id="rId52" display="https://codeforces.com/problemset/problem/1903/D1"/>
     <hyperlink ref="F77" r:id="rId53" display="https://codeforces.com/contest/1896/problem/D"/>
+    <hyperlink ref="F79" r:id="rId54" display="https://codeforces.com/contest/1530"/>
+    <hyperlink ref="F80" r:id="rId55" display="https://codeforces.com/contest/900/problem/C"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="166">
   <si>
     <t>Day</t>
   </si>
@@ -573,6 +573,21 @@
     <t>Think your solutions through the end and
 make sure the idea is correct before starting
 to implement</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1766/problem/D</t>
+  </si>
+  <si>
+    <t>I stumbled upon this problem when looking
+at someone's profile and I wanted to try it, you will get TLE if trying to factorize normally 
+a lot of numbers</t>
+  </si>
+  <si>
+    <t>Solution is to precalculate the biggest prime
+factor of all numbers till MAXN with kinda similar
+algorithm of Eratostenes. Then just divide 
+by the biggest factor of x as much as you can
+and then repeat the process</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -589,10 +604,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -627,16 +642,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -648,8 +671,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -657,7 +718,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,23 +734,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,22 +742,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -734,21 +763,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -769,7 +784,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,7 +802,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,7 +820,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,13 +850,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,13 +916,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,43 +940,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,55 +952,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -967,6 +982,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -977,45 +1007,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1054,147 +1045,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1557,7 +1572,7 @@
   <dimension ref="A1:M109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+      <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -3628,22 +3643,41 @@
       <c r="K80" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="L80" s="9" t="s">
+      <c r="L80" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" ht="135" spans="1:12">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
+      <c r="D81" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="2">
+        <v>1600</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G81" s="2">
+        <v>20</v>
+      </c>
+      <c r="H81" s="2">
+        <v>70</v>
+      </c>
+      <c r="I81" s="2">
+        <v>100</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L81" s="9" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="2"/>
@@ -3860,11 +3894,11 @@
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G98" s="2">
         <f>SUM(G1:G97)/60</f>
-        <v>43.9666666666667</v>
+        <v>44.3</v>
       </c>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
@@ -3878,11 +3912,11 @@
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G99" s="2">
         <f>G98/MAX(A6:A97)</f>
-        <v>2.3140350877193</v>
+        <v>2.33157894736842</v>
       </c>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
@@ -3909,7 +3943,7 @@
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G101" s="2">
         <f>AVERAGEIFS(G:G,E:E,1700)</f>
@@ -4084,6 +4118,7 @@
     <hyperlink ref="F77" r:id="rId53" display="https://codeforces.com/contest/1896/problem/D"/>
     <hyperlink ref="F79" r:id="rId54" display="https://codeforces.com/contest/1530"/>
     <hyperlink ref="F80" r:id="rId55" display="https://codeforces.com/contest/900/problem/C"/>
+    <hyperlink ref="F81" r:id="rId56" display="https://codeforces.com/contest/1766/problem/D"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="169">
   <si>
     <t>Day</t>
   </si>
@@ -588,6 +588,17 @@
 algorithm of Eratostenes. Then just divide 
 by the biggest factor of x as much as you can
 and then repeat the process</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1042/problem/C</t>
+  </si>
+  <si>
+    <t>95 (I got a hint from test 42)</t>
+  </si>
+  <si>
+    <t>Slow time, a lot of cases and bugs, I am kinda bad
+at these, I need to improve on implementation
+and multiple cases problems</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -604,10 +615,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -642,14 +653,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,38 +706,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -724,6 +727,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -732,16 +758,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -755,15 +773,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -778,13 +789,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,133 +813,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -940,13 +837,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,6 +955,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -969,45 +980,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1028,20 +1000,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1061,6 +1037,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1074,144 +1085,144 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1219,7 +1230,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1246,9 +1257,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1571,8 +1579,8 @@
   <sheetPr/>
   <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -3675,22 +3683,38 @@
       <c r="K81" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="L81" s="9" t="s">
+      <c r="L81" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" ht="75" spans="1:11">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
+      <c r="D82" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" s="2">
+        <v>1700</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G82" s="2">
+        <v>45</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I82" s="2">
+        <v>100</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="2"/>
@@ -3894,11 +3918,11 @@
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G98" s="2">
         <f>SUM(G1:G97)/60</f>
-        <v>44.3</v>
+        <v>45.05</v>
       </c>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
@@ -3912,11 +3936,11 @@
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G99" s="2">
         <f>G98/MAX(A6:A97)</f>
-        <v>2.33157894736842</v>
+        <v>2.37105263157895</v>
       </c>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
@@ -3943,11 +3967,11 @@
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G101" s="2">
         <f>AVERAGEIFS(G:G,E:E,1700)</f>
-        <v>31.625</v>
+        <v>31.9512195121951</v>
       </c>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
@@ -4119,6 +4143,7 @@
     <hyperlink ref="F79" r:id="rId54" display="https://codeforces.com/contest/1530"/>
     <hyperlink ref="F80" r:id="rId55" display="https://codeforces.com/contest/900/problem/C"/>
     <hyperlink ref="F81" r:id="rId56" display="https://codeforces.com/contest/1766/problem/D"/>
+    <hyperlink ref="F82" r:id="rId57" display="https://codeforces.com/contest/1042/problem/C"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="172">
   <si>
     <t>Day</t>
   </si>
@@ -599,6 +599,17 @@
     <t>Slow time, a lot of cases and bugs, I am kinda bad
 at these, I need to improve on implementation
 and multiple cases problems</t>
+  </si>
+  <si>
+    <t>24/01/2024</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/815/A</t>
+  </si>
+  <si>
+    <t>Ok time, good logic after thinking 
+of solutions more oriented with the 
+restrictions (O(n^3) it's allowed</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -615,10 +626,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -653,13 +664,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -674,8 +678,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -683,14 +694,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -705,30 +716,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -743,16 +740,30 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -766,7 +777,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -774,7 +785,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -786,12 +797,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -807,37 +812,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,13 +866,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,13 +896,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,19 +938,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,49 +956,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,7 +968,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,6 +1005,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1037,6 +1057,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1051,176 +1091,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1579,8 +1590,8 @@
   <sheetPr/>
   <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="L84" sqref="L84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -3729,18 +3740,40 @@
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
     </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
+    <row r="84" ht="45" spans="1:11">
+      <c r="A84" s="2">
+        <v>20</v>
+      </c>
+      <c r="B84" s="2">
+        <v>1606</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" s="2">
+        <v>1700</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G84" s="2">
+        <v>31</v>
+      </c>
+      <c r="H84" s="2">
+        <v>100</v>
+      </c>
+      <c r="I84" s="2">
+        <v>100</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="2"/>
@@ -3918,11 +3951,11 @@
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G98" s="2">
         <f>SUM(G1:G97)/60</f>
-        <v>45.05</v>
+        <v>45.5666666666667</v>
       </c>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
@@ -3936,11 +3969,11 @@
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G99" s="2">
         <f>G98/MAX(A6:A97)</f>
-        <v>2.37105263157895</v>
+        <v>2.27833333333333</v>
       </c>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
@@ -3967,11 +4000,11 @@
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G101" s="2">
         <f>AVERAGEIFS(G:G,E:E,1700)</f>
-        <v>31.9512195121951</v>
+        <v>31.9285714285714</v>
       </c>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
@@ -4144,6 +4177,7 @@
     <hyperlink ref="F80" r:id="rId55" display="https://codeforces.com/contest/900/problem/C"/>
     <hyperlink ref="F81" r:id="rId56" display="https://codeforces.com/contest/1766/problem/D"/>
     <hyperlink ref="F82" r:id="rId57" display="https://codeforces.com/contest/1042/problem/C"/>
+    <hyperlink ref="F84" r:id="rId58" display="https://codeforces.com/problemset/problem/815/A"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="174">
   <si>
     <t>Day</t>
   </si>
@@ -610,6 +610,12 @@
     <t>Ok time, good logic after thinking 
 of solutions more oriented with the 
 restrictions (O(n^3) it's allowed</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/294/problem/B</t>
+  </si>
+  <si>
+    <t>Ok time, not too much to add</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -626,10 +632,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -664,22 +670,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -694,25 +685,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -725,15 +700,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -749,7 +716,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -763,7 +752,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -776,8 +781,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -785,7 +791,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -797,54 +803,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -860,7 +818,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,115 +986,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,35 +1000,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1042,17 +1030,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1071,8 +1053,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1091,147 +1073,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1590,8 +1596,8 @@
   <sheetPr/>
   <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="L84" sqref="L84"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C80" workbookViewId="0">
+      <selection activeCell="J89" sqref="J89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -3779,14 +3785,30 @@
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
+      <c r="D85" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="2">
+        <v>1700</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G85" s="2">
+        <v>32</v>
+      </c>
+      <c r="H85" s="2">
+        <v>100</v>
+      </c>
+      <c r="I85" s="2">
+        <v>100</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="2"/>
@@ -3951,11 +3973,11 @@
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G98" s="2">
         <f>SUM(G1:G97)/60</f>
-        <v>45.5666666666667</v>
+        <v>46.1</v>
       </c>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
@@ -3969,11 +3991,11 @@
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G99" s="2">
         <f>G98/MAX(A6:A97)</f>
-        <v>2.27833333333333</v>
+        <v>2.305</v>
       </c>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
@@ -4000,11 +4022,11 @@
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G101" s="2">
         <f>AVERAGEIFS(G:G,E:E,1700)</f>
-        <v>31.9285714285714</v>
+        <v>31.9302325581395</v>
       </c>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
@@ -4178,6 +4200,7 @@
     <hyperlink ref="F81" r:id="rId56" display="https://codeforces.com/contest/1766/problem/D"/>
     <hyperlink ref="F82" r:id="rId57" display="https://codeforces.com/contest/1042/problem/C"/>
     <hyperlink ref="F84" r:id="rId58" display="https://codeforces.com/problemset/problem/815/A"/>
+    <hyperlink ref="F85" r:id="rId59" display="https://codeforces.com/contest/294/problem/B"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="177">
   <si>
     <t>Day</t>
   </si>
@@ -616,6 +616,16 @@
   </si>
   <si>
     <t>Ok time, not too much to add</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1131/problem/F</t>
+  </si>
+  <si>
+    <t>DSU</t>
+  </si>
+  <si>
+    <t>The idea was not hard, I just wasted unecessary
+time on implementation, could have been faster</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -634,8 +644,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -669,8 +679,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -684,6 +710,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -691,9 +725,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -706,24 +739,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -738,20 +755,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -759,23 +762,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -789,9 +792,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -803,6 +813,78 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -818,7 +900,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,7 +924,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,25 +954,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,13 +972,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,103 +996,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,17 +1010,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1032,15 +1051,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1050,11 +1060,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1073,171 +1107,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1597,7 +1607,7 @@
   <dimension ref="A1:M109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C80" workbookViewId="0">
-      <selection activeCell="J89" sqref="J89"/>
+      <selection activeCell="K91" sqref="K91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -3810,18 +3820,34 @@
         <v>170</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" ht="60" spans="1:11">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
-      <c r="J86" s="2"/>
-      <c r="K86" s="2"/>
+      <c r="D86" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="2">
+        <v>1700</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G86" s="2">
+        <v>35</v>
+      </c>
+      <c r="H86" s="2">
+        <v>100</v>
+      </c>
+      <c r="I86" s="2">
+        <v>100</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="2"/>
@@ -3973,11 +3999,11 @@
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G98" s="2">
         <f>SUM(G1:G97)/60</f>
-        <v>46.1</v>
+        <v>46.6833333333333</v>
       </c>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
@@ -3991,11 +4017,11 @@
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G99" s="2">
         <f>G98/MAX(A6:A97)</f>
-        <v>2.305</v>
+        <v>2.33416666666667</v>
       </c>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
@@ -4022,11 +4048,11 @@
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G101" s="2">
         <f>AVERAGEIFS(G:G,E:E,1700)</f>
-        <v>31.9302325581395</v>
+        <v>32</v>
       </c>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
@@ -4201,6 +4227,7 @@
     <hyperlink ref="F82" r:id="rId57" display="https://codeforces.com/contest/1042/problem/C"/>
     <hyperlink ref="F84" r:id="rId58" display="https://codeforces.com/problemset/problem/815/A"/>
     <hyperlink ref="F85" r:id="rId59" display="https://codeforces.com/contest/294/problem/B"/>
+    <hyperlink ref="F86" r:id="rId60" display="https://codeforces.com/contest/1131/problem/F"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="180">
   <si>
     <t>Day</t>
   </si>
@@ -626,6 +626,20 @@
   <si>
     <t>The idea was not hard, I just wasted unecessary
 time on implementation, could have been faster</t>
+  </si>
+  <si>
+    <t>https://www.pbinfo.ro/probleme/4564/douadrumuri</t>
+  </si>
+  <si>
+    <t>Spent a lot of time on this, I tried with map but it was 
+too slow, I got almost the full idea but didn't realized that
+if a cell has Manhatan Distance from (1, 1) as x then
+it's on the x-th secondary diagonal</t>
+  </si>
+  <si>
+    <t>If in a matrix a cell  has Manhatan 
+Distance x then it's on the x-th secondary 
+diagonal</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -642,10 +656,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -696,17 +710,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -718,29 +724,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -755,38 +749,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -802,6 +772,50 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -822,55 +836,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,13 +896,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,55 +950,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,13 +968,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,19 +992,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1034,6 +1048,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1061,6 +1084,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1078,32 +1116,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1112,142 +1126,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1257,7 +1271,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1284,6 +1298,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1606,8 +1623,8 @@
   <sheetPr/>
   <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C80" workbookViewId="0">
-      <selection activeCell="K91" sqref="K91"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -3849,18 +3866,35 @@
         <v>173</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" ht="105" spans="1:12">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
+      <c r="D87" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
+      <c r="F87" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G87" s="2">
+        <v>120</v>
+      </c>
+      <c r="H87" s="2">
+        <v>90</v>
+      </c>
+      <c r="I87" s="2">
+        <v>100</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="L87" s="9" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="2"/>
@@ -3999,11 +4033,11 @@
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G98" s="2">
         <f>SUM(G1:G97)/60</f>
-        <v>46.6833333333333</v>
+        <v>48.6833333333333</v>
       </c>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
@@ -4017,11 +4051,11 @@
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G99" s="2">
         <f>G98/MAX(A6:A97)</f>
-        <v>2.33416666666667</v>
+        <v>2.43416666666667</v>
       </c>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
@@ -4048,7 +4082,7 @@
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G101" s="2">
         <f>AVERAGEIFS(G:G,E:E,1700)</f>
@@ -4228,6 +4262,7 @@
     <hyperlink ref="F84" r:id="rId58" display="https://codeforces.com/problemset/problem/815/A"/>
     <hyperlink ref="F85" r:id="rId59" display="https://codeforces.com/contest/294/problem/B"/>
     <hyperlink ref="F86" r:id="rId60" display="https://codeforces.com/contest/1131/problem/F"/>
+    <hyperlink ref="F87" r:id="rId61" display="https://www.pbinfo.ro/probleme/4564/douadrumuri"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="182">
   <si>
     <t>Day</t>
   </si>
@@ -640,6 +640,14 @@
     <t>If in a matrix a cell  has Manhatan 
 Distance x then it's on the x-th secondary 
 diagonal</t>
+  </si>
+  <si>
+    <t>https://www.pbinfo.ro/probleme/4475/livada3</t>
+  </si>
+  <si>
+    <t>It was done using partial sums, nice problem
+I kinda new the way of solving but it was a little
+more implementation than usual</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -658,8 +666,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -693,9 +701,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -716,11 +723,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -732,9 +769,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -749,21 +785,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -777,16 +799,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -800,7 +815,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -813,13 +828,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -830,7 +838,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,61 +862,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,31 +892,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,31 +910,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -986,7 +952,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,13 +1000,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1021,6 +1029,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1039,11 +1056,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1058,16 +1081,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1098,21 +1121,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1126,142 +1134,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1271,7 +1279,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1298,9 +1306,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1621,10 +1626,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="I87" sqref="I87"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -3892,22 +3897,36 @@
       <c r="K87" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="L87" s="9" t="s">
+      <c r="L87" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" ht="75" spans="1:11">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
+      <c r="D88" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
+      <c r="F88" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G88" s="2">
+        <v>55</v>
+      </c>
+      <c r="H88" s="2">
+        <v>100</v>
+      </c>
+      <c r="I88" s="2">
+        <v>100</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K88" s="5" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="2"/>
@@ -4032,13 +4051,8 @@
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
-      <c r="F98" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G98" s="2">
-        <f>SUM(G1:G97)/60</f>
-        <v>48.6833333333333</v>
-      </c>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
@@ -4050,13 +4064,8 @@
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
-      <c r="F99" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G99" s="2">
-        <f>G98/MAX(A6:A97)</f>
-        <v>2.43416666666667</v>
-      </c>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
@@ -4081,13 +4090,8 @@
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
-      <c r="F101" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G101" s="2">
-        <f>AVERAGEIFS(G:G,E:E,1700)</f>
-        <v>32</v>
-      </c>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
@@ -4177,8 +4181,13 @@
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
+      <c r="F108" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G108" s="2">
+        <f>SUM(G1:G107)/60</f>
+        <v>49.6</v>
+      </c>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
@@ -4190,12 +4199,152 @@
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
+      <c r="F109" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G109" s="2">
+        <f>G108/MAX(A6:A107)</f>
+        <v>2.48</v>
+      </c>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G111" s="2">
+        <f>AVERAGEIFS(G:G,E:E,1700)</f>
+        <v>32</v>
+      </c>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4263,6 +4412,7 @@
     <hyperlink ref="F85" r:id="rId59" display="https://codeforces.com/contest/294/problem/B"/>
     <hyperlink ref="F86" r:id="rId60" display="https://codeforces.com/contest/1131/problem/F"/>
     <hyperlink ref="F87" r:id="rId61" display="https://www.pbinfo.ro/probleme/4564/douadrumuri"/>
+    <hyperlink ref="F88" r:id="rId62" display="https://www.pbinfo.ro/probleme/4475/livada3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="185">
   <si>
     <t>Day</t>
   </si>
@@ -648,6 +648,17 @@
     <t>It was done using partial sums, nice problem
 I kinda new the way of solving but it was a little
 more implementation than usual</t>
+  </si>
+  <si>
+    <t>https://www.pbinfo.ro/probleme/4565/amazon</t>
+  </si>
+  <si>
+    <t>LCA</t>
+  </si>
+  <si>
+    <t>Great first problem to use LCA. I really liked
+the idea and everything, a little bit slow but 
+happy overall</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -664,8 +675,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -702,21 +713,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -724,17 +720,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -747,15 +735,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -770,43 +750,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -822,7 +810,30 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -838,7 +849,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,37 +861,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,7 +897,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,55 +993,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,13 +1017,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -988,37 +1029,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,15 +1040,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1056,6 +1058,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1067,15 +1087,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1106,6 +1117,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1120,156 +1140,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1628,8 +1639,8 @@
   <sheetPr/>
   <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="F94" sqref="F94"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -3941,18 +3952,36 @@
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
     </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
+    <row r="90" ht="45" spans="1:11">
+      <c r="A90" s="2">
+        <v>21</v>
+      </c>
+      <c r="B90" s="2">
+        <v>1610</v>
+      </c>
       <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
+      <c r="D90" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
+      <c r="F90" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G90" s="2">
+        <v>83</v>
+      </c>
+      <c r="H90" s="2">
+        <v>100</v>
+      </c>
+      <c r="I90" s="2">
+        <v>100</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="2"/>
@@ -4182,11 +4211,11 @@
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G108" s="2">
         <f>SUM(G1:G107)/60</f>
-        <v>49.6</v>
+        <v>50.9833333333333</v>
       </c>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
@@ -4200,11 +4229,11 @@
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G109" s="2">
         <f>G108/MAX(A6:A107)</f>
-        <v>2.48</v>
+        <v>2.42777777777778</v>
       </c>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
@@ -4231,7 +4260,7 @@
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G111" s="2">
         <f>AVERAGEIFS(G:G,E:E,1700)</f>
@@ -4413,6 +4442,7 @@
     <hyperlink ref="F86" r:id="rId60" display="https://codeforces.com/contest/1131/problem/F"/>
     <hyperlink ref="F87" r:id="rId61" display="https://www.pbinfo.ro/probleme/4564/douadrumuri"/>
     <hyperlink ref="F88" r:id="rId62" display="https://www.pbinfo.ro/probleme/4475/livada3"/>
+    <hyperlink ref="F90" r:id="rId63" display="https://www.pbinfo.ro/probleme/4565/amazon"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="187">
   <si>
     <t>Day</t>
   </si>
@@ -659,6 +659,13 @@
     <t>Great first problem to use LCA. I really liked
 the idea and everything, a little bit slow but 
 happy overall</t>
+  </si>
+  <si>
+    <t>https://www.pbinfo.ro/probleme/4474/magie1</t>
+  </si>
+  <si>
+    <t>Good time, mostly greedy with a little bit
+of brute force</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -675,9 +682,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -713,14 +720,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -734,6 +771,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -742,10 +811,24 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -763,82 +846,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -849,13 +856,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,37 +910,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,7 +952,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,73 +964,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,25 +1000,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1040,6 +1047,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1062,46 +1093,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1127,16 +1134,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1145,142 +1152,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1639,8 +1646,8 @@
   <sheetPr/>
   <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="I101" sqref="I100:I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -3983,18 +3990,32 @@
         <v>181</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" ht="30" spans="1:11">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
+      <c r="D91" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
+      <c r="F91" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G91" s="2">
+        <v>28</v>
+      </c>
+      <c r="H91" s="2">
+        <v>100</v>
+      </c>
+      <c r="I91" s="2">
+        <v>100</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="2"/>
@@ -4211,11 +4232,11 @@
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G108" s="2">
         <f>SUM(G1:G107)/60</f>
-        <v>50.9833333333333</v>
+        <v>51.45</v>
       </c>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
@@ -4229,11 +4250,11 @@
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G109" s="2">
         <f>G108/MAX(A6:A107)</f>
-        <v>2.42777777777778</v>
+        <v>2.45</v>
       </c>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
@@ -4260,7 +4281,7 @@
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G111" s="2">
         <f>AVERAGEIFS(G:G,E:E,1700)</f>
@@ -4443,6 +4464,7 @@
     <hyperlink ref="F87" r:id="rId61" display="https://www.pbinfo.ro/probleme/4564/douadrumuri"/>
     <hyperlink ref="F88" r:id="rId62" display="https://www.pbinfo.ro/probleme/4475/livada3"/>
     <hyperlink ref="F90" r:id="rId63" display="https://www.pbinfo.ro/probleme/4565/amazon"/>
+    <hyperlink ref="F91" r:id="rId64" display="https://www.pbinfo.ro/probleme/4474/magie1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="191">
   <si>
     <t>Day</t>
   </si>
@@ -650,6 +650,9 @@
 more implementation than usual</t>
   </si>
   <si>
+    <t>25/01/2024</t>
+  </si>
+  <si>
     <t>https://www.pbinfo.ro/probleme/4565/amazon</t>
   </si>
   <si>
@@ -666,6 +669,15 @@
   <si>
     <t>Good time, mostly greedy with a little bit
 of brute force</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1420/problem/C1</t>
+  </si>
+  <si>
+    <t>Easy Dp problem</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -682,10 +694,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -727,6 +739,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -734,7 +769,52 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -750,46 +830,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -803,47 +851,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -856,43 +868,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,19 +886,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,37 +916,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,7 +934,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,7 +1006,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,37 +1048,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,15 +1059,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1099,6 +1102,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1133,17 +1151,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1152,142 +1164,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1647,7 +1659,7 @@
   <dimension ref="A1:M119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="I101" sqref="I100:I101"/>
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -3964,15 +3976,17 @@
         <v>21</v>
       </c>
       <c r="B90" s="2">
-        <v>1610</v>
-      </c>
-      <c r="C90" s="2"/>
+        <v>1611</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="D90" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G90" s="2">
         <v>83</v>
@@ -3984,10 +3998,10 @@
         <v>100</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K90" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="91" ht="30" spans="1:11">
@@ -3999,7 +4013,7 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G91" s="2">
         <v>28</v>
@@ -4014,7 +4028,7 @@
         <v>30</v>
       </c>
       <c r="K91" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4031,17 +4045,39 @@
       <c r="K92" s="2"/>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
+      <c r="A93" s="2">
+        <v>22</v>
+      </c>
+      <c r="B93" s="2">
+        <v>1611</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="2">
+        <v>1300</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G93" s="2">
+        <v>8</v>
+      </c>
+      <c r="H93" s="2">
+        <v>100</v>
+      </c>
+      <c r="I93" s="2">
+        <v>100</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="2"/>
@@ -4232,11 +4268,11 @@
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G108" s="2">
         <f>SUM(G1:G107)/60</f>
-        <v>51.45</v>
+        <v>51.5833333333333</v>
       </c>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
@@ -4250,11 +4286,11 @@
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G109" s="2">
         <f>G108/MAX(A6:A107)</f>
-        <v>2.45</v>
+        <v>2.34469696969697</v>
       </c>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
@@ -4281,7 +4317,7 @@
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G111" s="2">
         <f>AVERAGEIFS(G:G,E:E,1700)</f>
@@ -4465,6 +4501,7 @@
     <hyperlink ref="F88" r:id="rId62" display="https://www.pbinfo.ro/probleme/4475/livada3"/>
     <hyperlink ref="F90" r:id="rId63" display="https://www.pbinfo.ro/probleme/4565/amazon"/>
     <hyperlink ref="F91" r:id="rId64" display="https://www.pbinfo.ro/probleme/4474/magie1"/>
+    <hyperlink ref="F93" r:id="rId65" display="https://codeforces.com/contest/1420/problem/C1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="193">
   <si>
     <t>Day</t>
   </si>
@@ -678,6 +678,14 @@
   </si>
   <si>
     <t>Easy Dp problem</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1884/problem/C</t>
+  </si>
+  <si>
+    <t>Slow time but I saw that the people had
+similar performance around place 1200 (Still need
+to be better but still). Nice subsegments problem</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -694,8 +702,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -738,10 +746,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -754,13 +763,51 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -776,16 +823,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -798,48 +837,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -851,9 +860,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -868,13 +876,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,7 +888,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,7 +906,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,7 +930,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,19 +954,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,7 +1038,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,97 +1056,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1059,21 +1067,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1088,30 +1081,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1133,10 +1102,58 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1150,156 +1167,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1656,10 +1664,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M119"/>
+  <dimension ref="A1:M129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -4079,18 +4087,34 @@
         <v>187</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" ht="75" spans="1:11">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
-      <c r="K94" s="2"/>
+      <c r="D94" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" s="2">
+        <v>1700</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G94" s="2">
+        <v>50</v>
+      </c>
+      <c r="H94" s="2">
+        <v>100</v>
+      </c>
+      <c r="I94" s="2">
+        <v>100</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="2"/>
@@ -4267,13 +4291,8 @@
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
-      <c r="F108" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="G108" s="2">
-        <f>SUM(G1:G107)/60</f>
-        <v>51.5833333333333</v>
-      </c>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
@@ -4285,13 +4304,8 @@
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
-      <c r="F109" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G109" s="2">
-        <f>G108/MAX(A6:A107)</f>
-        <v>2.34469696969697</v>
-      </c>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
@@ -4316,13 +4330,8 @@
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
-      <c r="F111" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G111" s="2">
-        <f>AVERAGEIFS(G:G,E:E,1700)</f>
-        <v>32</v>
-      </c>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
@@ -4412,8 +4421,13 @@
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
+      <c r="F118" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G118" s="2">
+        <f>SUM(G1:G117)/60</f>
+        <v>52.4166666666667</v>
+      </c>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
@@ -4425,12 +4439,152 @@
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
+      <c r="F119" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G119" s="2">
+        <f>G118/MAX(A6:A117)</f>
+        <v>2.38257575757576</v>
+      </c>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G121" s="2">
+        <f>AVERAGEIFS(G:G,E:E,1700)</f>
+        <v>32.4</v>
+      </c>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2"/>
+      <c r="K122" s="2"/>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="2"/>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
+      <c r="K124" s="2"/>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="2"/>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4502,6 +4656,7 @@
     <hyperlink ref="F90" r:id="rId63" display="https://www.pbinfo.ro/probleme/4565/amazon"/>
     <hyperlink ref="F91" r:id="rId64" display="https://www.pbinfo.ro/probleme/4474/magie1"/>
     <hyperlink ref="F93" r:id="rId65" display="https://codeforces.com/contest/1420/problem/C1"/>
+    <hyperlink ref="F94" r:id="rId66" display="https://codeforces.com/contest/1884/problem/C"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="195">
   <si>
     <t>Day</t>
   </si>
@@ -686,6 +686,12 @@
     <t>Slow time but I saw that the people had
 similar performance around place 1200 (Still need
 to be better but still). Nice subsegments problem</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/761/problem/D</t>
+  </si>
+  <si>
+    <t>Great time, easier than usual I would say</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -702,10 +708,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -748,17 +754,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -770,6 +783,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -786,14 +815,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -807,61 +866,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -876,7 +882,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,31 +894,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,7 +942,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -948,31 +1044,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,79 +1062,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,6 +1091,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1096,15 +1137,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1124,28 +1156,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1154,16 +1169,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1172,142 +1178,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1666,8 +1672,8 @@
   <sheetPr/>
   <dimension ref="A1:M129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="K103" sqref="K103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -4120,14 +4126,30 @@
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
+      <c r="D95" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" s="2">
+        <v>1700</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G95" s="2">
+        <v>23</v>
+      </c>
+      <c r="H95" s="2">
+        <v>100</v>
+      </c>
+      <c r="I95" s="2">
+        <v>100</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="2"/>
@@ -4422,11 +4444,11 @@
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G118" s="2">
         <f>SUM(G1:G117)/60</f>
-        <v>52.4166666666667</v>
+        <v>52.8</v>
       </c>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
@@ -4440,11 +4462,11 @@
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G119" s="2">
         <f>G118/MAX(A6:A117)</f>
-        <v>2.38257575757576</v>
+        <v>2.4</v>
       </c>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
@@ -4471,11 +4493,11 @@
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G121" s="2">
         <f>AVERAGEIFS(G:G,E:E,1700)</f>
-        <v>32.4</v>
+        <v>32.195652173913</v>
       </c>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
@@ -4657,6 +4679,7 @@
     <hyperlink ref="F91" r:id="rId64" display="https://www.pbinfo.ro/probleme/4474/magie1"/>
     <hyperlink ref="F93" r:id="rId65" display="https://codeforces.com/contest/1420/problem/C1"/>
     <hyperlink ref="F94" r:id="rId66" display="https://codeforces.com/contest/1884/problem/C"/>
+    <hyperlink ref="F95" r:id="rId67" display="https://codeforces.com/contest/761/problem/D"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="198">
   <si>
     <t>Day</t>
   </si>
@@ -692,6 +692,16 @@
   </si>
   <si>
     <t>Great time, easier than usual I would say</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1185/problem/D</t>
+  </si>
+  <si>
+    <t>Math / Greedy</t>
+  </si>
+  <si>
+    <t>Amazing time, I found the solution and implemented
+it really fast</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -708,10 +718,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -754,14 +764,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -776,23 +786,30 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -808,22 +825,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -831,21 +855,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -860,16 +869,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -888,7 +898,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,157 +1048,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1076,17 +1086,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1095,17 +1105,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1126,6 +1125,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1140,177 +1183,144 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1672,8 +1682,8 @@
   <sheetPr/>
   <dimension ref="A1:M129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="K103" sqref="K103"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="J106" sqref="J106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -4151,18 +4161,34 @@
         <v>191</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" ht="45" spans="1:11">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
-      <c r="K96" s="2"/>
+      <c r="D96" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" s="2">
+        <v>1700</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G96" s="2">
+        <v>13</v>
+      </c>
+      <c r="H96" s="2">
+        <v>100</v>
+      </c>
+      <c r="I96" s="2">
+        <v>100</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="2"/>
@@ -4444,11 +4470,11 @@
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G118" s="2">
         <f>SUM(G1:G117)/60</f>
-        <v>52.8</v>
+        <v>53.0166666666667</v>
       </c>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
@@ -4462,11 +4488,11 @@
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G119" s="2">
         <f>G118/MAX(A6:A117)</f>
-        <v>2.4</v>
+        <v>2.40984848484848</v>
       </c>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
@@ -4493,11 +4519,11 @@
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G121" s="2">
         <f>AVERAGEIFS(G:G,E:E,1700)</f>
-        <v>32.195652173913</v>
+        <v>31.7872340425532</v>
       </c>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
@@ -4680,6 +4706,7 @@
     <hyperlink ref="F93" r:id="rId65" display="https://codeforces.com/contest/1420/problem/C1"/>
     <hyperlink ref="F94" r:id="rId66" display="https://codeforces.com/contest/1884/problem/C"/>
     <hyperlink ref="F95" r:id="rId67" display="https://codeforces.com/contest/761/problem/D"/>
+    <hyperlink ref="F96" r:id="rId68" display="https://codeforces.com/contest/1185/problem/D"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="200">
   <si>
     <t>Day</t>
   </si>
@@ -702,6 +702,12 @@
   <si>
     <t>Amazing time, I found the solution and implemented
 it really fast</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/382/C</t>
+  </si>
+  <si>
+    <t>Similar with the previousproblem, great time</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -718,10 +724,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -755,8 +761,114 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -771,115 +883,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -892,7 +898,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,19 +952,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,25 +982,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,13 +1012,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -988,37 +1060,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,49 +1072,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1083,56 +1089,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1163,8 +1119,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1183,147 +1154,182 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1682,8 +1688,8 @@
   <sheetPr/>
   <dimension ref="A1:M129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="J106" sqref="J106"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C90" workbookViewId="0">
+      <selection activeCell="L106" sqref="L106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -4194,14 +4200,30 @@
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
+      <c r="D97" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" s="2">
+        <v>1700</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G97" s="2">
+        <v>16</v>
+      </c>
+      <c r="H97" s="2">
+        <v>100</v>
+      </c>
+      <c r="I97" s="2">
+        <v>100</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="2"/>
@@ -4470,11 +4492,11 @@
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G118" s="2">
         <f>SUM(G1:G117)/60</f>
-        <v>53.0166666666667</v>
+        <v>53.2833333333333</v>
       </c>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
@@ -4488,11 +4510,11 @@
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G119" s="2">
         <f>G118/MAX(A6:A117)</f>
-        <v>2.40984848484848</v>
+        <v>2.4219696969697</v>
       </c>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
@@ -4519,11 +4541,11 @@
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G121" s="2">
         <f>AVERAGEIFS(G:G,E:E,1700)</f>
-        <v>31.7872340425532</v>
+        <v>31.4583333333333</v>
       </c>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
@@ -4707,6 +4729,7 @@
     <hyperlink ref="F94" r:id="rId66" display="https://codeforces.com/contest/1884/problem/C"/>
     <hyperlink ref="F95" r:id="rId67" display="https://codeforces.com/contest/761/problem/D"/>
     <hyperlink ref="F96" r:id="rId68" display="https://codeforces.com/contest/1185/problem/D"/>
+    <hyperlink ref="F97" r:id="rId69" display="https://codeforces.com/problemset/problem/382/C"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="202">
   <si>
     <t>Day</t>
   </si>
@@ -708,6 +708,12 @@
   </si>
   <si>
     <t>Similar with the previousproblem, great time</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/980/C</t>
+  </si>
+  <si>
+    <t>Nice greedy problem, I liked it</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -725,8 +731,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -761,17 +767,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -785,6 +797,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -793,14 +830,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -815,7 +859,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -828,8 +872,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -842,52 +894,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -898,7 +904,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,19 +1030,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,151 +1072,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1096,22 +1102,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1120,22 +1111,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1164,28 +1166,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1194,142 +1200,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1689,7 +1695,7 @@
   <dimension ref="A1:M129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C90" workbookViewId="0">
-      <selection activeCell="L106" sqref="L106"/>
+      <selection activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -4206,7 +4212,7 @@
       <c r="E97" s="2">
         <v>1700</v>
       </c>
-      <c r="F97" s="4" t="s">
+      <c r="F97" s="6" t="s">
         <v>195</v>
       </c>
       <c r="G97" s="2">
@@ -4229,14 +4235,30 @@
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
-      <c r="K98" s="2"/>
+      <c r="D98" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E98" s="2">
+        <v>1700</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G98" s="2">
+        <v>26</v>
+      </c>
+      <c r="H98" s="2">
+        <v>100</v>
+      </c>
+      <c r="I98" s="2">
+        <v>100</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="2"/>
@@ -4492,11 +4514,11 @@
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G118" s="2">
         <f>SUM(G1:G117)/60</f>
-        <v>53.2833333333333</v>
+        <v>53.7166666666667</v>
       </c>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
@@ -4510,11 +4532,11 @@
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G119" s="2">
         <f>G118/MAX(A6:A117)</f>
-        <v>2.4219696969697</v>
+        <v>2.44166666666667</v>
       </c>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
@@ -4541,11 +4563,11 @@
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G121" s="2">
         <f>AVERAGEIFS(G:G,E:E,1700)</f>
-        <v>31.4583333333333</v>
+        <v>31.3469387755102</v>
       </c>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
@@ -4730,6 +4752,7 @@
     <hyperlink ref="F95" r:id="rId67" display="https://codeforces.com/contest/761/problem/D"/>
     <hyperlink ref="F96" r:id="rId68" display="https://codeforces.com/contest/1185/problem/D"/>
     <hyperlink ref="F97" r:id="rId69" display="https://codeforces.com/problemset/problem/382/C"/>
+    <hyperlink ref="F98" r:id="rId70" display="https://codeforces.com/problemset/problem/980/C"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="205">
   <si>
     <t>Day</t>
   </si>
@@ -714,6 +714,16 @@
   </si>
   <si>
     <t>Nice greedy problem, I liked it</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/734/D</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>Just a heavy implementation problem
+with some nice logic, kinda slow time but yeah...</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -730,10 +740,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -767,6 +777,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -781,9 +815,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -799,30 +862,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -830,21 +869,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -864,36 +904,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -904,7 +914,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,133 +932,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,7 +956,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,7 +974,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,7 +1058,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1098,11 +1108,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1133,11 +1149,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1165,177 +1205,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1694,8 +1704,8 @@
   <sheetPr/>
   <dimension ref="A1:M129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C90" workbookViewId="0">
-      <selection activeCell="F107" sqref="F107"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -4260,18 +4270,34 @@
         <v>198</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" ht="45" spans="1:11">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
-      <c r="K99" s="2"/>
+      <c r="D99" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" s="2">
+        <v>1700</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G99" s="2">
+        <v>43</v>
+      </c>
+      <c r="H99" s="2">
+        <v>100</v>
+      </c>
+      <c r="I99" s="2">
+        <v>100</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="K99" s="5" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="2"/>
@@ -4514,11 +4540,11 @@
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G118" s="2">
         <f>SUM(G1:G117)/60</f>
-        <v>53.7166666666667</v>
+        <v>54.4333333333333</v>
       </c>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
@@ -4532,11 +4558,11 @@
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G119" s="2">
         <f>G118/MAX(A6:A117)</f>
-        <v>2.44166666666667</v>
+        <v>2.47424242424242</v>
       </c>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
@@ -4563,11 +4589,11 @@
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G121" s="2">
         <f>AVERAGEIFS(G:G,E:E,1700)</f>
-        <v>31.3469387755102</v>
+        <v>31.58</v>
       </c>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
@@ -4753,6 +4779,7 @@
     <hyperlink ref="F96" r:id="rId68" display="https://codeforces.com/contest/1185/problem/D"/>
     <hyperlink ref="F97" r:id="rId69" display="https://codeforces.com/problemset/problem/382/C"/>
     <hyperlink ref="F98" r:id="rId70" display="https://codeforces.com/problemset/problem/980/C"/>
+    <hyperlink ref="F99" r:id="rId71" display="https://codeforces.com/problemset/problem/734/D"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="208">
   <si>
     <t>Day</t>
   </si>
@@ -724,6 +724,16 @@
   <si>
     <t>Just a heavy implementation problem
 with some nice logic, kinda slow time but yeah...</t>
+  </si>
+  <si>
+    <t>27/01/2024</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1925</t>
+  </si>
+  <si>
+    <t>Got place 457/18600, with +126 rating change
+and performance of a 1910 rated coder</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -740,10 +750,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -777,25 +787,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -803,43 +796,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -861,6 +817,52 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -868,23 +870,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -904,6 +907,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -914,13 +924,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,61 +948,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,31 +972,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1040,7 +1020,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,43 +1080,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1108,26 +1118,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1149,20 +1144,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1178,6 +1179,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1210,142 +1220,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1704,8 +1714,8 @@
   <sheetPr/>
   <dimension ref="A1:M129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="H107" sqref="H107"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C90" workbookViewId="0">
+      <selection activeCell="K104" sqref="K104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -4312,18 +4322,36 @@
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
     </row>
-    <row r="101" spans="1:11">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
+    <row r="101" ht="45" spans="1:11">
+      <c r="A101" s="2">
+        <v>23</v>
+      </c>
+      <c r="B101" s="2">
+        <v>1737</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
+      <c r="F101" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G101" s="2">
+        <v>120</v>
+      </c>
+      <c r="H101" s="2">
+        <v>100</v>
+      </c>
+      <c r="I101" s="2">
+        <v>100</v>
+      </c>
       <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
+      <c r="K101" s="5" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="2"/>
@@ -4540,11 +4568,11 @@
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G118" s="2">
         <f>SUM(G1:G117)/60</f>
-        <v>54.4333333333333</v>
+        <v>56.4333333333333</v>
       </c>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
@@ -4558,11 +4586,11 @@
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G119" s="2">
         <f>G118/MAX(A6:A117)</f>
-        <v>2.47424242424242</v>
+        <v>2.4536231884058</v>
       </c>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
@@ -4589,7 +4617,7 @@
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G121" s="2">
         <f>AVERAGEIFS(G:G,E:E,1700)</f>
@@ -4780,6 +4808,7 @@
     <hyperlink ref="F97" r:id="rId69" display="https://codeforces.com/problemset/problem/382/C"/>
     <hyperlink ref="F98" r:id="rId70" display="https://codeforces.com/problemset/problem/980/C"/>
     <hyperlink ref="F99" r:id="rId71" display="https://codeforces.com/problemset/problem/734/D"/>
+    <hyperlink ref="F101" r:id="rId72" display="https://codeforces.com/contest/1925"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="213">
   <si>
     <t>Day</t>
   </si>
@@ -734,6 +734,24 @@
   <si>
     <t>Got place 457/18600, with +126 rating change
 and performance of a 1910 rated coder</t>
+  </si>
+  <si>
+    <t>29/01/2024</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1551</t>
+  </si>
+  <si>
+    <t>Participated virtually in div3 contest with a good
+performance</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1553</t>
+  </si>
+  <si>
+    <t>I participated in this virtual contest
+and took place 1414 with a performance of a 
+1820</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -750,10 +768,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -787,61 +805,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -854,9 +827,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -870,11 +843,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -887,7 +897,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -914,6 +924,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -924,7 +942,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,175 +1116,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,6 +1133,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1142,17 +1180,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1164,30 +1191,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1215,147 +1218,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1714,8 +1732,8 @@
   <sheetPr/>
   <dimension ref="A1:M129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C90" workbookViewId="0">
-      <selection activeCell="K104" sqref="K104"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C94" workbookViewId="0">
+      <selection activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -4366,31 +4384,61 @@
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
     </row>
-    <row r="103" spans="1:11">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
+    <row r="103" ht="45" spans="1:11">
+      <c r="A103" s="2">
+        <v>24</v>
+      </c>
+      <c r="B103" s="2">
+        <v>1737</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
+      <c r="F103" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G103" s="2">
+        <v>120</v>
+      </c>
+      <c r="H103" s="2">
+        <v>100</v>
+      </c>
+      <c r="I103" s="2">
+        <v>100</v>
+      </c>
       <c r="J103" s="2"/>
-      <c r="K103" s="2"/>
-    </row>
-    <row r="104" spans="1:11">
+      <c r="K103" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="104" ht="60" spans="1:11">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
+      <c r="D104" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
+      <c r="F104" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="G104" s="2">
+        <v>120</v>
+      </c>
+      <c r="H104" s="2">
+        <v>100</v>
+      </c>
+      <c r="I104" s="2">
+        <v>100</v>
+      </c>
       <c r="J104" s="2"/>
-      <c r="K104" s="2"/>
+      <c r="K104" s="5" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="2"/>
@@ -4568,11 +4616,11 @@
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="G118" s="2">
         <f>SUM(G1:G117)/60</f>
-        <v>56.4333333333333</v>
+        <v>60.4333333333333</v>
       </c>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
@@ -4586,11 +4634,11 @@
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G119" s="2">
         <f>G118/MAX(A6:A117)</f>
-        <v>2.4536231884058</v>
+        <v>2.51805555555556</v>
       </c>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
@@ -4617,7 +4665,7 @@
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="G121" s="2">
         <f>AVERAGEIFS(G:G,E:E,1700)</f>
@@ -4809,6 +4857,8 @@
     <hyperlink ref="F98" r:id="rId70" display="https://codeforces.com/problemset/problem/980/C"/>
     <hyperlink ref="F99" r:id="rId71" display="https://codeforces.com/problemset/problem/734/D"/>
     <hyperlink ref="F101" r:id="rId72" display="https://codeforces.com/contest/1925"/>
+    <hyperlink ref="F104" r:id="rId73" display="https://codeforces.com/contest/1553"/>
+    <hyperlink ref="F103" r:id="rId74" display="https://codeforces.com/contest/1551"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -7,14 +7,14 @@
     <workbookView windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Timelapse" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="217">
   <si>
     <t>Day</t>
   </si>
@@ -754,6 +754,16 @@
 1820</t>
   </si>
   <si>
+    <t>https://codeforces.com/contest/1768/problem/D</t>
+  </si>
+  <si>
+    <t>Graphs</t>
+  </si>
+  <si>
+    <t>Nice problem for working on the minimum
+number of swaps to get to a permutation</t>
+  </si>
+  <si>
     <t>Total time spent this year in hours:</t>
   </si>
   <si>
@@ -761,6 +771,9 @@
   </si>
   <si>
     <t>Average solve time for 1700 rated problems</t>
+  </si>
+  <si>
+    <t>Average solve time for 1800 rated problems</t>
   </si>
 </sst>
 </file>
@@ -768,10 +781,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -805,8 +818,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -814,37 +834,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -858,6 +848,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -866,16 +863,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -896,6 +900,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -905,9 +933,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -915,21 +943,6 @@
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -942,25 +955,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,13 +973,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1002,7 +1003,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,13 +1015,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,19 +1075,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1062,31 +1117,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1098,31 +1129,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1133,26 +1146,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1180,21 +1173,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1210,11 +1188,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1233,147 +1217,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1730,10 +1743,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M129"/>
+  <dimension ref="A1:M139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C94" workbookViewId="0">
-      <selection activeCell="F109" sqref="F109"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -4440,18 +4453,34 @@
         <v>209</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" ht="30" spans="1:11">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
-      <c r="K105" s="2"/>
+      <c r="D105" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E105" s="2">
+        <v>1800</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G105" s="2">
+        <v>21</v>
+      </c>
+      <c r="H105" s="2">
+        <v>100</v>
+      </c>
+      <c r="I105" s="2">
+        <v>100</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K105" s="5" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="2"/>
@@ -4615,13 +4644,8 @@
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
-      <c r="F118" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="G118" s="2">
-        <f>SUM(G1:G117)/60</f>
-        <v>60.4333333333333</v>
-      </c>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
@@ -4633,13 +4657,8 @@
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
-      <c r="F119" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G119" s="2">
-        <f>G118/MAX(A6:A117)</f>
-        <v>2.51805555555556</v>
-      </c>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
@@ -4664,13 +4683,8 @@
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
-      <c r="F121" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="G121" s="2">
-        <f>AVERAGEIFS(G:G,E:E,1700)</f>
-        <v>31.58</v>
-      </c>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
@@ -4760,8 +4774,13 @@
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
+      <c r="F128" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G128" s="2">
+        <f>SUM(G1:G127)/60</f>
+        <v>60.7833333333333</v>
+      </c>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
@@ -4773,12 +4792,157 @@
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
+      <c r="F129" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G129" s="2">
+        <f>G128/MAX(A6:A127)</f>
+        <v>2.53263888888889</v>
+      </c>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G131" s="2">
+        <f>AVERAGEIFS(G:G,E:E,1700)</f>
+        <v>31.58</v>
+      </c>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+      <c r="K131" s="2"/>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G132" s="2">
+        <f>AVERAGEIFS(G:G,E:E,1800)</f>
+        <v>21</v>
+      </c>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="2"/>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
+      <c r="K133" s="2"/>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2"/>
+      <c r="K134" s="2"/>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2"/>
+      <c r="K135" s="2"/>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2"/>
+      <c r="K136" s="2"/>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2"/>
+      <c r="K137" s="2"/>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+      <c r="J138" s="2"/>
+      <c r="K138" s="2"/>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" s="2"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+      <c r="J139" s="2"/>
+      <c r="K139" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4859,6 +5023,7 @@
     <hyperlink ref="F101" r:id="rId72" display="https://codeforces.com/contest/1925"/>
     <hyperlink ref="F104" r:id="rId73" display="https://codeforces.com/contest/1553"/>
     <hyperlink ref="F103" r:id="rId74" display="https://codeforces.com/contest/1551"/>
+    <hyperlink ref="F105" r:id="rId75" display="https://codeforces.com/contest/1768/problem/D"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="219">
   <si>
     <t>Day</t>
   </si>
@@ -762,6 +762,12 @@
   <si>
     <t>Nice problem for working on the minimum
 number of swaps to get to a permutation</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1324/F</t>
+  </si>
+  <si>
+    <t>Good time and nice problem</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -781,10 +787,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -819,7 +825,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -833,8 +898,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -848,28 +936,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -878,67 +944,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -955,7 +961,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -967,7 +979,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,49 +1003,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,7 +1039,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1063,13 +1087,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1081,25 +1099,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,31 +1123,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1149,11 +1155,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1173,32 +1194,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1218,31 +1238,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1251,142 +1257,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1746,7 +1752,7 @@
   <dimension ref="A1:M139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+      <selection activeCell="K109" sqref="K109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -4486,14 +4492,30 @@
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
-      <c r="J106" s="2"/>
-      <c r="K106" s="2"/>
+      <c r="D106" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E106" s="2">
+        <v>1800</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G106" s="2">
+        <v>33</v>
+      </c>
+      <c r="H106" s="2">
+        <v>100</v>
+      </c>
+      <c r="I106" s="2">
+        <v>100</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="2"/>
@@ -4775,11 +4797,11 @@
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G128" s="2">
         <f>SUM(G1:G127)/60</f>
-        <v>60.7833333333333</v>
+        <v>61.3333333333333</v>
       </c>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
@@ -4793,11 +4815,11 @@
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G129" s="2">
         <f>G128/MAX(A6:A127)</f>
-        <v>2.53263888888889</v>
+        <v>2.55555555555556</v>
       </c>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
@@ -4824,7 +4846,7 @@
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G131" s="2">
         <f>AVERAGEIFS(G:G,E:E,1700)</f>
@@ -4842,11 +4864,11 @@
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G132" s="2">
         <f>AVERAGEIFS(G:G,E:E,1800)</f>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
@@ -5024,6 +5046,7 @@
     <hyperlink ref="F104" r:id="rId73" display="https://codeforces.com/contest/1553"/>
     <hyperlink ref="F103" r:id="rId74" display="https://codeforces.com/contest/1551"/>
     <hyperlink ref="F105" r:id="rId75" display="https://codeforces.com/contest/1768/problem/D"/>
+    <hyperlink ref="F106" r:id="rId76" display="https://codeforces.com/problemset/problem/1324/F"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="228">
   <si>
     <t>Day</t>
   </si>
@@ -768,6 +768,37 @@
   </si>
   <si>
     <t>Good time and nice problem</t>
+  </si>
+  <si>
+    <t>31/01/2024</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1295/D</t>
+  </si>
+  <si>
+    <t>Interesting problem, this is the first time I learned
+about Euler Totient function. Unfortunately
+I didn't managed to come up with the idea</t>
+  </si>
+  <si>
+    <t>Euler's Totient function</t>
+  </si>
+  <si>
+    <t>problems</t>
+  </si>
+  <si>
+    <t>https://www.infoarena.ro/arhiva</t>
+  </si>
+  <si>
+    <t>Solved a few problems froma local
+programming platform</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1475/problem/D</t>
+  </si>
+  <si>
+    <t>Very easy problem, I think this should
+have been 1200-1300 difficulty</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -788,8 +819,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -831,23 +862,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -861,15 +900,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -891,7 +932,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -899,10 +940,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -915,38 +956,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -961,7 +992,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,25 +1046,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1009,13 +1070,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,25 +1118,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,7 +1130,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1069,25 +1160,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,49 +1172,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1155,26 +1186,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1190,6 +1206,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1214,11 +1254,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1237,162 +1283,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1402,7 +1433,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1429,6 +1460,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1751,8 +1785,8 @@
   <sheetPr/>
   <dimension ref="A1:M139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="K109" sqref="K109"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -4530,31 +4564,68 @@
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
     </row>
-    <row r="108" spans="1:11">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
-      <c r="K108" s="2"/>
-    </row>
-    <row r="109" spans="1:11">
+    <row r="108" ht="60" spans="1:12">
+      <c r="A108" s="2">
+        <v>25</v>
+      </c>
+      <c r="B108" s="2">
+        <v>1737</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E108" s="2">
+        <v>1800</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G108" s="2">
+        <v>120</v>
+      </c>
+      <c r="H108" s="2">
+        <v>50</v>
+      </c>
+      <c r="I108" s="2">
+        <v>100</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K108" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="L108" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="109" ht="30" spans="1:11">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
+      <c r="D109" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
+      <c r="F109" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="G109" s="2">
+        <v>60</v>
+      </c>
+      <c r="H109" s="2">
+        <v>100</v>
+      </c>
+      <c r="I109" s="2">
+        <v>100</v>
+      </c>
       <c r="J109" s="2"/>
-      <c r="K109" s="2"/>
+      <c r="K109" s="5" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="2"/>
@@ -4569,18 +4640,40 @@
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
     </row>
-    <row r="111" spans="1:11">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="2"/>
-      <c r="J111" s="2"/>
-      <c r="K111" s="2"/>
+    <row r="111" ht="30" spans="1:11">
+      <c r="A111" s="2">
+        <v>26</v>
+      </c>
+      <c r="B111" s="2">
+        <v>1737</v>
+      </c>
+      <c r="C111" s="3">
+        <v>45293</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111" s="2">
+        <v>1800</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="G111" s="2">
+        <v>8</v>
+      </c>
+      <c r="H111" s="2">
+        <v>100</v>
+      </c>
+      <c r="I111" s="2">
+        <v>100</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K111" s="5" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="2"/>
@@ -4797,11 +4890,11 @@
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="G128" s="2">
         <f>SUM(G1:G127)/60</f>
-        <v>61.3333333333333</v>
+        <v>64.4666666666667</v>
       </c>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
@@ -4815,11 +4908,11 @@
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="G129" s="2">
         <f>G128/MAX(A6:A127)</f>
-        <v>2.55555555555556</v>
+        <v>2.47948717948718</v>
       </c>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
@@ -4846,7 +4939,7 @@
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="G131" s="2">
         <f>AVERAGEIFS(G:G,E:E,1700)</f>
@@ -4864,11 +4957,11 @@
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="G132" s="2">
         <f>AVERAGEIFS(G:G,E:E,1800)</f>
-        <v>27</v>
+        <v>45.5</v>
       </c>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
@@ -5047,6 +5140,9 @@
     <hyperlink ref="F103" r:id="rId74" display="https://codeforces.com/contest/1551"/>
     <hyperlink ref="F105" r:id="rId75" display="https://codeforces.com/contest/1768/problem/D"/>
     <hyperlink ref="F106" r:id="rId76" display="https://codeforces.com/problemset/problem/1324/F"/>
+    <hyperlink ref="F108" r:id="rId77" display="https://codeforces.com/problemset/problem/1295/D"/>
+    <hyperlink ref="F109" r:id="rId78" display="https://www.infoarena.ro/arhiva"/>
+    <hyperlink ref="F111" r:id="rId79" display="https://codeforces.com/contest/1475/problem/D"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="230">
   <si>
     <t>Day</t>
   </si>
@@ -799,6 +799,13 @@
   <si>
     <t>Very easy problem, I think this should
 have been 1200-1300 difficulty</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1225/problem/D</t>
+  </si>
+  <si>
+    <t>Good time, I liked the problem and I used
+the fast factorization method</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -818,10 +825,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -856,21 +863,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -886,9 +893,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -897,6 +934,13 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -923,30 +967,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -956,28 +976,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -992,7 +999,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,7 +1029,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,13 +1047,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1034,91 +1113,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1136,13 +1137,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1154,25 +1167,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1195,6 +1202,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1206,6 +1228,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1253,177 +1290,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1433,7 +1440,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1460,9 +1467,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1785,8 +1789,8 @@
   <sheetPr/>
   <dimension ref="A1:M139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="D115" sqref="D115"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -4598,7 +4602,7 @@
       <c r="K108" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="L108" s="9" t="s">
+      <c r="L108" s="2" t="s">
         <v>218</v>
       </c>
     </row>
@@ -4675,18 +4679,34 @@
         <v>223</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" ht="30" spans="1:11">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
-      <c r="J112" s="2"/>
-      <c r="K112" s="2"/>
+      <c r="D112" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" s="2">
+        <v>1800</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G112" s="2">
+        <v>34</v>
+      </c>
+      <c r="H112" s="2">
+        <v>100</v>
+      </c>
+      <c r="I112" s="2">
+        <v>100</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K112" s="5" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="2"/>
@@ -4890,11 +4910,11 @@
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G128" s="2">
         <f>SUM(G1:G127)/60</f>
-        <v>64.4666666666667</v>
+        <v>65.0333333333333</v>
       </c>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
@@ -4908,11 +4928,11 @@
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G129" s="2">
         <f>G128/MAX(A6:A127)</f>
-        <v>2.47948717948718</v>
+        <v>2.50128205128205</v>
       </c>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
@@ -4939,7 +4959,7 @@
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G131" s="2">
         <f>AVERAGEIFS(G:G,E:E,1700)</f>
@@ -4957,11 +4977,11 @@
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G132" s="2">
         <f>AVERAGEIFS(G:G,E:E,1800)</f>
-        <v>45.5</v>
+        <v>43.2</v>
       </c>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
@@ -5143,6 +5163,7 @@
     <hyperlink ref="F108" r:id="rId77" display="https://codeforces.com/problemset/problem/1295/D"/>
     <hyperlink ref="F109" r:id="rId78" display="https://www.infoarena.ro/arhiva"/>
     <hyperlink ref="F111" r:id="rId79" display="https://codeforces.com/contest/1475/problem/D"/>
+    <hyperlink ref="F112" r:id="rId80" display="https://codeforces.com/contest/1225/problem/D"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="232">
   <si>
     <t>Day</t>
   </si>
@@ -806,6 +806,13 @@
   <si>
     <t>Good time, I liked the problem and I used
 the fast factorization method</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/448/D</t>
+  </si>
+  <si>
+    <t>Slow time, I got into wrong ideas a little and I took
+a small peek at test 5</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -826,8 +833,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -863,43 +870,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -915,9 +885,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -926,6 +918,14 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -938,7 +938,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -953,40 +990,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -999,7 +1006,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,19 +1156,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1041,91 +1168,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,49 +1186,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1190,15 +1197,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1213,6 +1211,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1232,6 +1248,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1243,15 +1279,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1270,167 +1297,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1789,8 +1796,8 @@
   <sheetPr/>
   <dimension ref="A1:M139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="F115" sqref="F115"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -4708,18 +4715,34 @@
         <v>225</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" ht="45" spans="1:11">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
-      <c r="J113" s="2"/>
-      <c r="K113" s="2"/>
+      <c r="D113" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113" s="2">
+        <v>1800</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="G113" s="2">
+        <v>55</v>
+      </c>
+      <c r="H113" s="2">
+        <v>95</v>
+      </c>
+      <c r="I113" s="2">
+        <v>100</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K113" s="5" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="2"/>
@@ -4910,11 +4933,11 @@
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G128" s="2">
         <f>SUM(G1:G127)/60</f>
-        <v>65.0333333333333</v>
+        <v>65.95</v>
       </c>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
@@ -4928,11 +4951,11 @@
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G129" s="2">
         <f>G128/MAX(A6:A127)</f>
-        <v>2.50128205128205</v>
+        <v>2.53653846153846</v>
       </c>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
@@ -4959,7 +4982,7 @@
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G131" s="2">
         <f>AVERAGEIFS(G:G,E:E,1700)</f>
@@ -4977,11 +5000,11 @@
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G132" s="2">
         <f>AVERAGEIFS(G:G,E:E,1800)</f>
-        <v>43.2</v>
+        <v>45.1666666666667</v>
       </c>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
@@ -5164,6 +5187,7 @@
     <hyperlink ref="F109" r:id="rId78" display="https://www.infoarena.ro/arhiva"/>
     <hyperlink ref="F111" r:id="rId79" display="https://codeforces.com/contest/1475/problem/D"/>
     <hyperlink ref="F112" r:id="rId80" display="https://codeforces.com/contest/1225/problem/D"/>
+    <hyperlink ref="F113" r:id="rId81" display="https://codeforces.com/problemset/problem/448/D"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="235">
   <si>
     <t>Day</t>
   </si>
@@ -813,6 +813,19 @@
   <si>
     <t>Slow time, I got into wrong ideas a little and I took
 a small peek at test 5</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1918</t>
+  </si>
+  <si>
+    <t>I participated virtually in this Div2 contest with a
+performance of a 1770 rated coder which is ok
+but need to improve. I solved first 3 problems preety fast but problem D was challenging. I tried with binary search but probably I am totally off. Will see. UPD: it was correct with 
+binary search but I didn't find the right aproach to check for a specific p. I tried with another binary search in this one and I was failing testcase 2 from examples...</t>
+  </si>
+  <si>
+    <t>Try to take more examples on which to check 
+your solution before starting to implement</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -832,10 +845,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -869,6 +882,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -876,9 +919,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -892,7 +959,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -906,7 +980,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -914,18 +988,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -943,59 +1009,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1006,13 +1019,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,7 +1079,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,7 +1169,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,121 +1187,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1174,19 +1199,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1218,50 +1231,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1284,6 +1253,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1297,147 +1281,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1447,7 +1460,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1471,6 +1484,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1796,8 +1812,8 @@
   <sheetPr/>
   <dimension ref="A1:M139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="F119" sqref="F119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -4757,18 +4773,39 @@
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
     </row>
-    <row r="115" spans="1:11">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
+    <row r="115" ht="195" spans="1:12">
+      <c r="A115" s="2">
+        <v>27</v>
+      </c>
+      <c r="B115" s="2">
+        <v>1737</v>
+      </c>
+      <c r="C115" s="3">
+        <v>45324</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="2"/>
+      <c r="F115" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G115" s="2">
+        <v>120</v>
+      </c>
+      <c r="H115" s="2">
+        <v>100</v>
+      </c>
+      <c r="I115" s="2">
+        <v>100</v>
+      </c>
       <c r="J115" s="2"/>
-      <c r="K115" s="2"/>
+      <c r="K115" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="L115" s="9" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="2"/>
@@ -4933,11 +4970,11 @@
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G128" s="2">
         <f>SUM(G1:G127)/60</f>
-        <v>65.95</v>
+        <v>67.95</v>
       </c>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
@@ -4951,11 +4988,11 @@
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G129" s="2">
         <f>G128/MAX(A6:A127)</f>
-        <v>2.53653846153846</v>
+        <v>2.51666666666667</v>
       </c>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
@@ -4982,7 +5019,7 @@
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G131" s="2">
         <f>AVERAGEIFS(G:G,E:E,1700)</f>
@@ -5000,7 +5037,7 @@
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G132" s="2">
         <f>AVERAGEIFS(G:G,E:E,1800)</f>
@@ -5188,6 +5225,7 @@
     <hyperlink ref="F111" r:id="rId79" display="https://codeforces.com/contest/1475/problem/D"/>
     <hyperlink ref="F112" r:id="rId80" display="https://codeforces.com/contest/1225/problem/D"/>
     <hyperlink ref="F113" r:id="rId81" display="https://codeforces.com/problemset/problem/448/D"/>
+    <hyperlink ref="F115" r:id="rId82" display="https://codeforces.com/contest/1918"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="237">
   <si>
     <t>Day</t>
   </si>
@@ -826,6 +826,13 @@
   <si>
     <t>Try to take more examples on which to check 
 your solution before starting to implement</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/problems/FRIENDGR</t>
+  </si>
+  <si>
+    <t>Easy Greedy problem from Codechef, I had 
+an annoying bug :(</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -845,10 +852,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -882,29 +889,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -919,9 +903,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -935,9 +933,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -958,10 +955,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -972,8 +994,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -987,24 +1010,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1019,13 +1026,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,7 +1044,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1055,7 +1068,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1073,13 +1104,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,85 +1134,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1187,19 +1152,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1210,6 +1217,71 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1231,64 +1303,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1296,17 +1312,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1315,142 +1322,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1460,7 +1467,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1484,9 +1491,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1812,8 +1816,8 @@
   <sheetPr/>
   <dimension ref="A1:M139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="F119" sqref="F119"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C109" workbookViewId="0">
+      <selection activeCell="H126" sqref="H125:H126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -4803,7 +4807,7 @@
       <c r="K115" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="L115" s="9" t="s">
+      <c r="L115" s="8" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4820,18 +4824,38 @@
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
     </row>
-    <row r="117" spans="1:11">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
+    <row r="117" ht="30" spans="1:11">
+      <c r="A117" s="2">
+        <v>28</v>
+      </c>
+      <c r="B117" s="2">
+        <v>1737</v>
+      </c>
+      <c r="C117" s="3">
+        <v>45353</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="2"/>
-      <c r="J117" s="2"/>
-      <c r="K117" s="2"/>
+      <c r="F117" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="G117" s="2">
+        <v>14</v>
+      </c>
+      <c r="H117" s="2">
+        <v>100</v>
+      </c>
+      <c r="I117" s="2">
+        <v>100</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K117" s="5" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="2"/>
@@ -4970,11 +4994,11 @@
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G128" s="2">
         <f>SUM(G1:G127)/60</f>
-        <v>67.95</v>
+        <v>68.1833333333333</v>
       </c>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
@@ -4988,11 +5012,11 @@
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G129" s="2">
         <f>G128/MAX(A6:A127)</f>
-        <v>2.51666666666667</v>
+        <v>2.43511904761905</v>
       </c>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
@@ -5019,7 +5043,7 @@
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G131" s="2">
         <f>AVERAGEIFS(G:G,E:E,1700)</f>
@@ -5037,7 +5061,7 @@
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G132" s="2">
         <f>AVERAGEIFS(G:G,E:E,1800)</f>
@@ -5226,6 +5250,7 @@
     <hyperlink ref="F112" r:id="rId80" display="https://codeforces.com/contest/1225/problem/D"/>
     <hyperlink ref="F113" r:id="rId81" display="https://codeforces.com/problemset/problem/448/D"/>
     <hyperlink ref="F115" r:id="rId82" display="https://codeforces.com/contest/1918"/>
+    <hyperlink ref="F117" r:id="rId83" display="https://www.codechef.com/problems/FRIENDGR"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="240">
   <si>
     <t>Day</t>
   </si>
@@ -833,6 +833,16 @@
   <si>
     <t>Easy Greedy problem from Codechef, I had 
 an annoying bug :(</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/problems/FIBOSEQ</t>
+  </si>
+  <si>
+    <t>Discovered that if you want to make 2^n mod 
+p you can't take mod p on n</t>
+  </si>
+  <si>
+    <t>Learned that 2^(n%p) % p != (2^n) % p</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -852,10 +862,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -890,23 +900,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -934,7 +938,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -948,8 +989,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -965,53 +1014,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1026,25 +1036,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1056,109 +1054,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1176,13 +1072,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1194,7 +1090,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1206,7 +1156,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1244,6 +1254,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1261,11 +1286,29 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1284,180 +1327,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1816,8 +1826,8 @@
   <sheetPr/>
   <dimension ref="A1:M139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C109" workbookViewId="0">
-      <selection activeCell="H126" sqref="H125:H126"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="L124" sqref="L124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -4857,18 +4867,35 @@
         <v>232</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" ht="45" spans="1:12">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
+      <c r="D118" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
-      <c r="J118" s="2"/>
-      <c r="K118" s="2"/>
+      <c r="F118" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G118" s="2">
+        <v>51</v>
+      </c>
+      <c r="H118" s="2">
+        <v>90</v>
+      </c>
+      <c r="I118" s="2">
+        <v>100</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K118" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="L118" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="2"/>
@@ -4994,11 +5021,11 @@
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G128" s="2">
         <f>SUM(G1:G127)/60</f>
-        <v>68.1833333333333</v>
+        <v>69.0333333333333</v>
       </c>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
@@ -5012,11 +5039,11 @@
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G129" s="2">
         <f>G128/MAX(A6:A127)</f>
-        <v>2.43511904761905</v>
+        <v>2.46547619047619</v>
       </c>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
@@ -5043,7 +5070,7 @@
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G131" s="2">
         <f>AVERAGEIFS(G:G,E:E,1700)</f>
@@ -5061,7 +5088,7 @@
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G132" s="2">
         <f>AVERAGEIFS(G:G,E:E,1800)</f>
@@ -5251,6 +5278,7 @@
     <hyperlink ref="F113" r:id="rId81" display="https://codeforces.com/problemset/problem/448/D"/>
     <hyperlink ref="F115" r:id="rId82" display="https://codeforces.com/contest/1918"/>
     <hyperlink ref="F117" r:id="rId83" display="https://www.codechef.com/problems/FRIENDGR"/>
+    <hyperlink ref="F118" r:id="rId84" display="https://www.codechef.com/problems/FIBOSEQ"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="242">
   <si>
     <t>Day</t>
   </si>
@@ -843,6 +843,16 @@
   </si>
   <si>
     <t>Learned that 2^(n%p) % p != (2^n) % p</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc339</t>
+  </si>
+  <si>
+    <t>I took place 2083, nice problems. I solved A, B
+C, E but for D I didn't knew that BFS can be used like
+this. Also I liked the idea for F even though
+it's not 100% a correct solution but I guess it works 
+as there are no hacks. Will upsolve D and F</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -863,8 +873,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -900,45 +910,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -960,10 +932,72 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -975,15 +1009,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1004,24 +1030,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1036,19 +1046,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,19 +1070,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,13 +1088,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1108,7 +1106,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,25 +1142,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1150,7 +1196,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1162,7 +1214,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1174,49 +1226,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1227,6 +1237,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1254,21 +1279,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1284,11 +1294,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1313,17 +1329,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1332,142 +1342,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1826,8 +1836,8 @@
   <sheetPr/>
   <dimension ref="A1:M139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="L124" sqref="L124"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="K119" sqref="K119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -4897,18 +4907,30 @@
         <v>235</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" ht="120" spans="1:11">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
+      <c r="D119" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
-      <c r="I119" s="2"/>
+      <c r="F119" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="G119" s="2">
+        <v>100</v>
+      </c>
+      <c r="H119" s="2">
+        <v>100</v>
+      </c>
+      <c r="I119" s="2">
+        <v>100</v>
+      </c>
       <c r="J119" s="2"/>
-      <c r="K119" s="2"/>
+      <c r="K119" s="5" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="2"/>
@@ -5021,11 +5043,11 @@
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G128" s="2">
         <f>SUM(G1:G127)/60</f>
-        <v>69.0333333333333</v>
+        <v>70.7</v>
       </c>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
@@ -5039,11 +5061,11 @@
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G129" s="2">
         <f>G128/MAX(A6:A127)</f>
-        <v>2.46547619047619</v>
+        <v>2.525</v>
       </c>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
@@ -5070,7 +5092,7 @@
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G131" s="2">
         <f>AVERAGEIFS(G:G,E:E,1700)</f>
@@ -5088,7 +5110,7 @@
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G132" s="2">
         <f>AVERAGEIFS(G:G,E:E,1800)</f>
@@ -5279,6 +5301,7 @@
     <hyperlink ref="F115" r:id="rId82" display="https://codeforces.com/contest/1918"/>
     <hyperlink ref="F117" r:id="rId83" display="https://www.codechef.com/problems/FRIENDGR"/>
     <hyperlink ref="F118" r:id="rId84" display="https://www.codechef.com/problems/FIBOSEQ"/>
+    <hyperlink ref="F119" r:id="rId85" display="https://atcoder.jp/contests/abc339"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="248">
   <si>
     <t>Day</t>
   </si>
@@ -853,6 +853,28 @@
 this. Also I liked the idea for F even though
 it's not 100% a correct solution but I guess it works 
 as there are no hacks. Will upsolve D and F</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1721/problem/D</t>
+  </si>
+  <si>
+    <t>Pretty standard problem</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1063/B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I solved this with an ugly BFS that almost timed
+out.. </t>
+  </si>
+  <si>
+    <t>I solved previous problem the right way
+and I learned for the first time about 0-1 BFS. 
+It was an amazing solution</t>
+  </si>
+  <si>
+    <t>I learned about 0-1 BFS where edges can
+have only 2 different weights.</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -872,10 +894,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -910,15 +932,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -932,22 +946,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -957,6 +964,21 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -972,23 +994,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1009,17 +1022,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1030,8 +1043,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1046,7 +1068,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,13 +1098,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,13 +1122,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1112,31 +1164,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,19 +1206,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1178,55 +1242,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1237,21 +1259,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1279,6 +1286,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1290,21 +1312,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1337,147 +1344,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1487,7 +1509,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1514,6 +1536,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1834,10 +1859,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M139"/>
+  <dimension ref="A1:M155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="K119" sqref="K119"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="F126" sqref="F126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -4946,43 +4971,92 @@
       <c r="K120" s="2"/>
     </row>
     <row r="121" spans="1:11">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
-      <c r="J121" s="2"/>
-      <c r="K121" s="2"/>
-    </row>
-    <row r="122" spans="1:11">
+      <c r="A121" s="2">
+        <v>29</v>
+      </c>
+      <c r="B121" s="2">
+        <v>1737</v>
+      </c>
+      <c r="C121" s="3">
+        <v>45445</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E121" s="2">
+        <v>1800</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G121" s="2">
+        <v>25</v>
+      </c>
+      <c r="H121" s="2">
+        <v>100</v>
+      </c>
+      <c r="I121" s="2">
+        <v>100</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K121" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="122" ht="45" spans="1:11">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
-      <c r="G122" s="2"/>
-      <c r="H122" s="2"/>
-      <c r="I122" s="2"/>
-      <c r="J122" s="2"/>
-      <c r="K122" s="2"/>
-    </row>
-    <row r="123" spans="1:11">
+      <c r="D122" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E122" s="2">
+        <v>1800</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="G122" s="2">
+        <v>45</v>
+      </c>
+      <c r="H122" s="2">
+        <v>100</v>
+      </c>
+      <c r="I122" s="2">
+        <v>100</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K122" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="123" ht="60" spans="1:12">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
+      <c r="D123" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
+      <c r="F123" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="G123" s="2">
+        <v>17</v>
+      </c>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
-      <c r="K123" s="2"/>
+      <c r="K123" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="L123" s="9" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="2"/>
@@ -5042,13 +5116,8 @@
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
-      <c r="F128" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G128" s="2">
-        <f>SUM(G1:G127)/60</f>
-        <v>70.7</v>
-      </c>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
@@ -5060,13 +5129,8 @@
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
-      <c r="F129" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G129" s="2">
-        <f>G128/MAX(A6:A127)</f>
-        <v>2.525</v>
-      </c>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
@@ -5091,13 +5155,8 @@
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
-      <c r="F131" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="G131" s="2">
-        <f>AVERAGEIFS(G:G,E:E,1700)</f>
-        <v>31.58</v>
-      </c>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
@@ -5109,13 +5168,8 @@
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
-      <c r="F132" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="G132" s="2">
-        <f>AVERAGEIFS(G:G,E:E,1800)</f>
-        <v>45.1666666666667</v>
-      </c>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
@@ -5211,6 +5265,234 @@
       <c r="I139" s="2"/>
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+      <c r="J140" s="2"/>
+      <c r="K140" s="2"/>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2"/>
+      <c r="K141" s="2"/>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2"/>
+      <c r="K142" s="2"/>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
+      <c r="J143" s="2"/>
+      <c r="K143" s="2"/>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G144" s="2">
+        <f>SUM(G1:G143)/60</f>
+        <v>72.15</v>
+      </c>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2"/>
+      <c r="K144" s="2"/>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G145" s="2">
+        <f>G144/MAX(A6:A143)</f>
+        <v>2.48793103448276</v>
+      </c>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2"/>
+      <c r="K145" s="2"/>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2"/>
+      <c r="K146" s="2"/>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147" s="2"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G147" s="2">
+        <f>AVERAGEIFS(G:G,E:E,1700)</f>
+        <v>31.58</v>
+      </c>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
+      <c r="J147" s="2"/>
+      <c r="K147" s="2"/>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" s="2"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G148" s="2">
+        <f>AVERAGEIFS(G:G,E:E,1800)</f>
+        <v>42.625</v>
+      </c>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2"/>
+      <c r="K148" s="2"/>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149" s="2"/>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
+      <c r="H149" s="2"/>
+      <c r="I149" s="2"/>
+      <c r="J149" s="2"/>
+      <c r="K149" s="2"/>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150" s="2"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2"/>
+      <c r="K150" s="2"/>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151" s="2"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2"/>
+      <c r="J151" s="2"/>
+      <c r="K151" s="2"/>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152" s="2"/>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
+      <c r="I152" s="2"/>
+      <c r="J152" s="2"/>
+      <c r="K152" s="2"/>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153" s="2"/>
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
+      <c r="I153" s="2"/>
+      <c r="J153" s="2"/>
+      <c r="K153" s="2"/>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154" s="2"/>
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="2"/>
+      <c r="J154" s="2"/>
+      <c r="K154" s="2"/>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155" s="2"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="2"/>
+      <c r="K155" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5302,6 +5584,9 @@
     <hyperlink ref="F117" r:id="rId83" display="https://www.codechef.com/problems/FRIENDGR"/>
     <hyperlink ref="F118" r:id="rId84" display="https://www.codechef.com/problems/FIBOSEQ"/>
     <hyperlink ref="F119" r:id="rId85" display="https://atcoder.jp/contests/abc339"/>
+    <hyperlink ref="F121" r:id="rId86" display="https://codeforces.com/contest/1721/problem/D"/>
+    <hyperlink ref="F122" r:id="rId87" display="https://codeforces.com/problemset/problem/1063/B" tooltip="https://codeforces.com/problemset/problem/1063/B"/>
+    <hyperlink ref="F123" r:id="rId87" display="https://codeforces.com/problemset/problem/1063/B"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="252">
   <si>
     <t>Day</t>
   </si>
@@ -875,6 +875,24 @@
   <si>
     <t>I learned about 0-1 BFS where edges can
 have only 2 different weights.</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1548/problem/B</t>
+  </si>
+  <si>
+    <t>SegmentTree</t>
+  </si>
+  <si>
+    <t>I solved this in 25 minutes with Segment tree
+but it was too slow so I did a small optimization
+to reduce the intervals I was searching on, good
+problem and ok time
+Update: I could have done this with 2 pointers for a faster and better solution (I also implemented this solution)</t>
+  </si>
+  <si>
+    <t>You can keep function values for
+when the middle works when combining it
+with Segment tree</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -894,9 +912,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -931,6 +949,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -939,7 +965,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -953,24 +979,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -993,36 +1003,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1043,17 +1040,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1068,31 +1086,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1104,7 +1104,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1122,7 +1122,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1134,13 +1212,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1152,13 +1242,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1170,85 +1266,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1262,11 +1280,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1286,21 +1310,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1312,6 +1321,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1335,171 +1377,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1861,8 +1879,8 @@
   <sheetPr/>
   <dimension ref="A1:M155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="F126" sqref="F126"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C116" workbookViewId="0">
+      <selection activeCell="K127" sqref="K126:K127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -5054,7 +5072,7 @@
       <c r="K123" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="L123" s="9" t="s">
+      <c r="L123" s="5" t="s">
         <v>243</v>
       </c>
     </row>
@@ -5071,18 +5089,43 @@
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
     </row>
-    <row r="125" spans="1:11">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
-      <c r="I125" s="2"/>
-      <c r="J125" s="2"/>
-      <c r="K125" s="2"/>
+    <row r="125" ht="165" spans="1:12">
+      <c r="A125" s="2">
+        <v>30</v>
+      </c>
+      <c r="B125" s="2">
+        <v>1737</v>
+      </c>
+      <c r="C125" s="3">
+        <v>45475</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E125" s="2">
+        <v>1800</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="G125" s="2">
+        <v>36</v>
+      </c>
+      <c r="H125" s="2">
+        <v>100</v>
+      </c>
+      <c r="I125" s="2">
+        <v>100</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="K125" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="L125" s="9" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="2"/>
@@ -5325,11 +5368,11 @@
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G144" s="2">
         <f>SUM(G1:G143)/60</f>
-        <v>72.15</v>
+        <v>72.75</v>
       </c>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
@@ -5343,11 +5386,11 @@
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G145" s="2">
         <f>G144/MAX(A6:A143)</f>
-        <v>2.48793103448276</v>
+        <v>2.425</v>
       </c>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
@@ -5374,7 +5417,7 @@
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G147" s="2">
         <f>AVERAGEIFS(G:G,E:E,1700)</f>
@@ -5392,11 +5435,11 @@
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="G148" s="2">
         <f>AVERAGEIFS(G:G,E:E,1800)</f>
-        <v>42.625</v>
+        <v>41.8888888888889</v>
       </c>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
@@ -5587,6 +5630,7 @@
     <hyperlink ref="F121" r:id="rId86" display="https://codeforces.com/contest/1721/problem/D"/>
     <hyperlink ref="F122" r:id="rId87" display="https://codeforces.com/problemset/problem/1063/B" tooltip="https://codeforces.com/problemset/problem/1063/B"/>
     <hyperlink ref="F123" r:id="rId87" display="https://codeforces.com/problemset/problem/1063/B"/>
+    <hyperlink ref="F125" r:id="rId88" display="https://codeforces.com/contest/1548/problem/B"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="254">
   <si>
     <t>Day</t>
   </si>
@@ -893,6 +893,15 @@
     <t>You can keep function values for
 when the middle works when combining it
 with Segment tree</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1705/problem/D</t>
+  </si>
+  <si>
+    <t>Complex greedy solution that I used but appa
+rently it's a way easier one, I didn't fully 
+understanded it but I will try tonight when going
+to sleep</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -912,9 +921,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -964,8 +973,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -988,25 +1036,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1019,44 +1051,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1069,9 +1064,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1092,7 +1101,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1104,13 +1137,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1122,7 +1191,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1134,43 +1239,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1182,7 +1251,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1200,67 +1269,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1291,6 +1300,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1327,8 +1354,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1352,26 +1381,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1382,133 +1391,133 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1517,7 +1526,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1527,7 +1536,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1554,9 +1563,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1879,8 +1885,8 @@
   <sheetPr/>
   <dimension ref="A1:M155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C116" workbookViewId="0">
-      <selection activeCell="K127" sqref="K126:K127"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="K127" sqref="K127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -5123,22 +5129,38 @@
       <c r="K125" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="L125" s="9" t="s">
+      <c r="L125" s="5" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" ht="90" spans="1:11">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
-      <c r="I126" s="2"/>
-      <c r="J126" s="2"/>
-      <c r="K126" s="2"/>
+      <c r="D126" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E126" s="2">
+        <v>1800</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G126" s="2">
+        <v>65</v>
+      </c>
+      <c r="H126" s="2">
+        <v>100</v>
+      </c>
+      <c r="I126" s="2">
+        <v>100</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K126" s="5" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="2"/>
@@ -5368,11 +5390,11 @@
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G144" s="2">
         <f>SUM(G1:G143)/60</f>
-        <v>72.75</v>
+        <v>73.8333333333333</v>
       </c>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
@@ -5386,11 +5408,11 @@
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G145" s="2">
         <f>G144/MAX(A6:A143)</f>
-        <v>2.425</v>
+        <v>2.46111111111111</v>
       </c>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
@@ -5417,7 +5439,7 @@
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G147" s="2">
         <f>AVERAGEIFS(G:G,E:E,1700)</f>
@@ -5435,11 +5457,11 @@
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G148" s="2">
         <f>AVERAGEIFS(G:G,E:E,1800)</f>
-        <v>41.8888888888889</v>
+        <v>44.2</v>
       </c>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
@@ -5631,6 +5653,7 @@
     <hyperlink ref="F122" r:id="rId87" display="https://codeforces.com/problemset/problem/1063/B" tooltip="https://codeforces.com/problemset/problem/1063/B"/>
     <hyperlink ref="F123" r:id="rId87" display="https://codeforces.com/problemset/problem/1063/B"/>
     <hyperlink ref="F125" r:id="rId88" display="https://codeforces.com/contest/1548/problem/B"/>
+    <hyperlink ref="F126" r:id="rId89" display="https://codeforces.com/contest/1705/problem/D"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="256">
   <si>
     <t>Day</t>
   </si>
@@ -902,6 +902,15 @@
 rently it's a way easier one, I didn't fully 
 understanded it but I will try tonight when going
 to sleep</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1831/problem/D</t>
+  </si>
+  <si>
+    <t>I tried to solve this but got time 
+limit exceed on test 3.. I got 70% of the ideas but
+still need some optimizations, I added this to the 
+queue of unsolved problems</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -921,9 +930,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -966,23 +975,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -990,7 +984,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1004,14 +998,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1020,7 +1006,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1036,15 +1030,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1065,9 +1058,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1083,6 +1084,14 @@
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1101,25 +1110,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,7 +1128,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1149,19 +1242,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1173,91 +1272,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1269,13 +1284,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1304,24 +1313,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1333,21 +1324,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1381,8 +1357,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1391,142 +1400,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1885,8 +1894,8 @@
   <sheetPr/>
   <dimension ref="A1:M155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="K127" sqref="K127"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="K130" sqref="K130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -5175,18 +5184,36 @@
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
     </row>
-    <row r="128" spans="1:11">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
+    <row r="128" ht="90" spans="1:11">
+      <c r="A128" s="2">
+        <v>31</v>
+      </c>
+      <c r="B128" s="2">
+        <v>1737</v>
+      </c>
+      <c r="C128" s="3">
+        <v>45506</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E128" s="2">
+        <v>200</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="G128" s="2">
+        <v>75</v>
+      </c>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
-      <c r="J128" s="2"/>
-      <c r="K128" s="2"/>
+      <c r="J128" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K128" s="5" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="2"/>
@@ -5390,11 +5417,11 @@
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G144" s="2">
         <f>SUM(G1:G143)/60</f>
-        <v>73.8333333333333</v>
+        <v>75.0833333333333</v>
       </c>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
@@ -5408,11 +5435,11 @@
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G145" s="2">
         <f>G144/MAX(A6:A143)</f>
-        <v>2.46111111111111</v>
+        <v>2.42204301075269</v>
       </c>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
@@ -5439,7 +5466,7 @@
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G147" s="2">
         <f>AVERAGEIFS(G:G,E:E,1700)</f>
@@ -5457,7 +5484,7 @@
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G148" s="2">
         <f>AVERAGEIFS(G:G,E:E,1800)</f>
@@ -5654,6 +5681,7 @@
     <hyperlink ref="F123" r:id="rId87" display="https://codeforces.com/problemset/problem/1063/B"/>
     <hyperlink ref="F125" r:id="rId88" display="https://codeforces.com/contest/1548/problem/B"/>
     <hyperlink ref="F126" r:id="rId89" display="https://codeforces.com/contest/1705/problem/D"/>
+    <hyperlink ref="F128" r:id="rId90" display="https://codeforces.com/contest/1831/problem/D"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="258">
   <si>
     <t>Day</t>
   </si>
@@ -911,6 +911,15 @@
 limit exceed on test 3.. I got 70% of the ideas but
 still need some optimizations, I added this to the 
 queue of unsolved problems</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1207/D</t>
+  </si>
+  <si>
+    <t>I was very close to solve the full problem..
+I just didn't consider it the right way and it was harder
+to calculate it like that...  I just had a very small 
+hint from editorial</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -930,10 +939,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -967,24 +976,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -998,6 +998,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1007,14 +1015,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1036,8 +1051,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1045,20 +1061,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1072,9 +1074,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1087,11 +1089,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1104,13 +1113,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1122,19 +1131,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1152,7 +1185,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1164,127 +1293,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1298,17 +1307,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1330,11 +1333,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1356,18 +1372,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1380,162 +1404,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1894,8 +1903,8 @@
   <sheetPr/>
   <dimension ref="A1:M155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="K130" sqref="K130"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="F136" sqref="F136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -5198,7 +5207,7 @@
         <v>13</v>
       </c>
       <c r="E128" s="2">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="F128" s="4" t="s">
         <v>250</v>
@@ -5215,18 +5224,34 @@
         <v>251</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" ht="90" spans="1:11">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
-      <c r="I129" s="2"/>
-      <c r="J129" s="2"/>
-      <c r="K129" s="2"/>
+      <c r="D129" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E129" s="2">
+        <v>1800</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G129" s="2">
+        <v>81</v>
+      </c>
+      <c r="H129" s="2">
+        <v>90</v>
+      </c>
+      <c r="I129" s="2">
+        <v>100</v>
+      </c>
+      <c r="J129" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K129" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="2"/>
@@ -5417,11 +5442,11 @@
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G144" s="2">
         <f>SUM(G1:G143)/60</f>
-        <v>75.0833333333333</v>
+        <v>76.4333333333333</v>
       </c>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
@@ -5435,11 +5460,11 @@
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G145" s="2">
         <f>G144/MAX(A6:A143)</f>
-        <v>2.42204301075269</v>
+        <v>2.46559139784946</v>
       </c>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
@@ -5466,7 +5491,7 @@
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G147" s="2">
         <f>AVERAGEIFS(G:G,E:E,1700)</f>
@@ -5484,11 +5509,11 @@
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G148" s="2">
         <f>AVERAGEIFS(G:G,E:E,1800)</f>
-        <v>44.2</v>
+        <v>47.5454545454545</v>
       </c>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
@@ -5682,6 +5707,7 @@
     <hyperlink ref="F125" r:id="rId88" display="https://codeforces.com/contest/1548/problem/B"/>
     <hyperlink ref="F126" r:id="rId89" display="https://codeforces.com/contest/1705/problem/D"/>
     <hyperlink ref="F128" r:id="rId90" display="https://codeforces.com/contest/1831/problem/D"/>
+    <hyperlink ref="F129" r:id="rId91" display="https://codeforces.com/problemset/problem/1207/D"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="261">
   <si>
     <t>Day</t>
   </si>
@@ -920,6 +920,16 @@
 I just didn't consider it the right way and it was harder
 to calculate it like that...  I just had a very small 
 hint from editorial</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1775/D</t>
+  </si>
+  <si>
+    <t>Graphs, Number Theory</t>
+  </si>
+  <si>
+    <t>Nice problem, I spent more on the 
+implementation</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -939,10 +949,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -977,21 +987,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1005,24 +1001,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1037,9 +1017,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1051,9 +1039,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1074,16 +1069,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1113,7 +1123,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1125,133 +1291,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1263,37 +1303,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1316,26 +1326,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1355,17 +1380,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1380,171 +1414,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1904,7 +1914,7 @@
   <dimension ref="A1:M155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="F136" sqref="F136"/>
+      <selection activeCell="H129" sqref="H129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -5253,18 +5263,34 @@
         <v>253</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" ht="30" spans="1:11">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2"/>
-      <c r="I130" s="2"/>
-      <c r="J130" s="2"/>
-      <c r="K130" s="2"/>
+      <c r="D130" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E130" s="2">
+        <v>1800</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="G130" s="2">
+        <v>42</v>
+      </c>
+      <c r="H130" s="2">
+        <v>100</v>
+      </c>
+      <c r="I130" s="2">
+        <v>100</v>
+      </c>
+      <c r="J130" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="K130" s="5" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="2"/>
@@ -5442,11 +5468,11 @@
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G144" s="2">
         <f>SUM(G1:G143)/60</f>
-        <v>76.4333333333333</v>
+        <v>77.1333333333333</v>
       </c>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
@@ -5460,11 +5486,11 @@
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G145" s="2">
         <f>G144/MAX(A6:A143)</f>
-        <v>2.46559139784946</v>
+        <v>2.48817204301075</v>
       </c>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
@@ -5491,7 +5517,7 @@
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G147" s="2">
         <f>AVERAGEIFS(G:G,E:E,1700)</f>
@@ -5509,11 +5535,11 @@
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G148" s="2">
         <f>AVERAGEIFS(G:G,E:E,1800)</f>
-        <v>47.5454545454545</v>
+        <v>47.0833333333333</v>
       </c>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
@@ -5708,6 +5734,7 @@
     <hyperlink ref="F126" r:id="rId89" display="https://codeforces.com/contest/1705/problem/D"/>
     <hyperlink ref="F128" r:id="rId90" display="https://codeforces.com/contest/1831/problem/D"/>
     <hyperlink ref="F129" r:id="rId91" display="https://codeforces.com/problemset/problem/1207/D"/>
+    <hyperlink ref="F130" r:id="rId92" display="https://codeforces.com/problemset/problem/1775/D"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="264">
   <si>
     <t>Day</t>
   </si>
@@ -930,6 +930,15 @@
   <si>
     <t>Nice problem, I spent more on the 
 implementation</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1108/E1</t>
+  </si>
+  <si>
+    <t>Brute Force</t>
+  </si>
+  <si>
+    <t>Pretty easy problem I would say</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -949,10 +958,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -987,17 +996,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1009,15 +1017,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1032,10 +1033,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1054,6 +1063,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -1061,22 +1086,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1092,18 +1109,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1123,19 +1132,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1147,7 +1156,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1159,7 +1192,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1171,19 +1210,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1201,19 +1228,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1226,78 +1307,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1317,6 +1326,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1326,11 +1350,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1350,17 +1380,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1388,152 +1423,126 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1545,16 +1554,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1914,7 +1923,7 @@
   <dimension ref="A1:M155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="H129" sqref="H129"/>
+      <selection activeCell="H137" sqref="H137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -5296,14 +5305,30 @@
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
-      <c r="I131" s="2"/>
-      <c r="J131" s="2"/>
-      <c r="K131" s="2"/>
+      <c r="D131" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E131" s="2">
+        <v>1800</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G131" s="2">
+        <v>16</v>
+      </c>
+      <c r="H131" s="2">
+        <v>100</v>
+      </c>
+      <c r="I131" s="2">
+        <v>100</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="K131" s="2" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="2"/>
@@ -5468,11 +5493,11 @@
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G144" s="2">
         <f>SUM(G1:G143)/60</f>
-        <v>77.1333333333333</v>
+        <v>77.4</v>
       </c>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
@@ -5486,11 +5511,11 @@
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G145" s="2">
         <f>G144/MAX(A6:A143)</f>
-        <v>2.48817204301075</v>
+        <v>2.49677419354839</v>
       </c>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
@@ -5517,7 +5542,7 @@
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G147" s="2">
         <f>AVERAGEIFS(G:G,E:E,1700)</f>
@@ -5535,11 +5560,11 @@
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G148" s="2">
         <f>AVERAGEIFS(G:G,E:E,1800)</f>
-        <v>47.0833333333333</v>
+        <v>44.6923076923077</v>
       </c>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
@@ -5735,6 +5760,7 @@
     <hyperlink ref="F128" r:id="rId90" display="https://codeforces.com/contest/1831/problem/D"/>
     <hyperlink ref="F129" r:id="rId91" display="https://codeforces.com/problemset/problem/1207/D"/>
     <hyperlink ref="F130" r:id="rId92" display="https://codeforces.com/problemset/problem/1775/D"/>
+    <hyperlink ref="F131" r:id="rId93" display="https://codeforces.com/problemset/problem/1108/E1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="269">
   <si>
     <t>Day</t>
   </si>
@@ -939,6 +939,22 @@
   </si>
   <si>
     <t>Pretty easy problem I would say</t>
+  </si>
+  <si>
+    <t>2100X</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1108/problem/E2</t>
+  </si>
+  <si>
+    <t>I got TLE on test 102 with O(n * m * logn) solution
+:(. I will look into it and how to optimize it son</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1179/B</t>
+  </si>
+  <si>
+    <t>Pretty easy greedy problem</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -958,10 +974,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -996,21 +1012,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1025,15 +1035,22 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1048,8 +1065,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1057,7 +1075,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1080,44 +1119,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1132,13 +1148,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1150,7 +1244,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1162,79 +1298,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1246,73 +1328,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1323,30 +1339,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1366,36 +1358,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1418,8 +1390,52 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1428,142 +1444,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1920,10 +1936,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M155"/>
+  <dimension ref="A1:M165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="H137" sqref="H137"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -5214,7 +5230,7 @@
     </row>
     <row r="128" ht="90" spans="1:11">
       <c r="A128" s="2">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B128" s="2">
         <v>1737</v>
@@ -5330,31 +5346,59 @@
         <v>259</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" ht="60" spans="1:11">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
+      <c r="D132" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="G132" s="2">
+        <v>25</v>
+      </c>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
-      <c r="J132" s="2"/>
-      <c r="K132" s="2"/>
+      <c r="J132" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K132" s="5" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
-      <c r="I133" s="2"/>
-      <c r="J133" s="2"/>
-      <c r="K133" s="2"/>
+      <c r="D133" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E133" s="2">
+        <v>1800</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="G133" s="2">
+        <v>17</v>
+      </c>
+      <c r="H133" s="2">
+        <v>100</v>
+      </c>
+      <c r="I133" s="2">
+        <v>100</v>
+      </c>
+      <c r="J133" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K133" s="2" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="2"/>
@@ -5492,13 +5536,8 @@
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
-      <c r="F144" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="G144" s="2">
-        <f>SUM(G1:G143)/60</f>
-        <v>77.4</v>
-      </c>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
@@ -5510,13 +5549,8 @@
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
-      <c r="F145" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="G145" s="2">
-        <f>G144/MAX(A6:A143)</f>
-        <v>2.49677419354839</v>
-      </c>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
       <c r="J145" s="2"/>
@@ -5541,13 +5575,8 @@
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
-      <c r="F147" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="G147" s="2">
-        <f>AVERAGEIFS(G:G,E:E,1700)</f>
-        <v>31.58</v>
-      </c>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
@@ -5559,13 +5588,8 @@
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
-      <c r="F148" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="G148" s="2">
-        <f>AVERAGEIFS(G:G,E:E,1800)</f>
-        <v>44.6923076923077</v>
-      </c>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
@@ -5642,8 +5666,13 @@
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
-      <c r="F154" s="2"/>
-      <c r="G154" s="2"/>
+      <c r="F154" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G154" s="2">
+        <f>SUM(G1:G153)/60</f>
+        <v>78.1</v>
+      </c>
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
@@ -5655,12 +5684,157 @@
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
-      <c r="F155" s="2"/>
-      <c r="G155" s="2"/>
+      <c r="F155" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G155" s="2">
+        <f>G154/MAX(A6:A153)</f>
+        <v>1.9525</v>
+      </c>
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156" s="2"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2"/>
+      <c r="J156" s="2"/>
+      <c r="K156" s="2"/>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157" s="2"/>
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="G157" s="2">
+        <f>AVERAGEIFS(G:G,E:E,1700)</f>
+        <v>31.58</v>
+      </c>
+      <c r="H157" s="2"/>
+      <c r="I157" s="2"/>
+      <c r="J157" s="2"/>
+      <c r="K157" s="2"/>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158" s="2"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="G158" s="2">
+        <f>AVERAGEIFS(G:G,E:E,1800)</f>
+        <v>42.7142857142857</v>
+      </c>
+      <c r="H158" s="2"/>
+      <c r="I158" s="2"/>
+      <c r="J158" s="2"/>
+      <c r="K158" s="2"/>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159" s="2"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
+      <c r="J159" s="2"/>
+      <c r="K159" s="2"/>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160" s="2"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="2"/>
+      <c r="J160" s="2"/>
+      <c r="K160" s="2"/>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161" s="2"/>
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
+      <c r="H161" s="2"/>
+      <c r="I161" s="2"/>
+      <c r="J161" s="2"/>
+      <c r="K161" s="2"/>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162" s="2"/>
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+      <c r="H162" s="2"/>
+      <c r="I162" s="2"/>
+      <c r="J162" s="2"/>
+      <c r="K162" s="2"/>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163" s="2"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
+      <c r="J163" s="2"/>
+      <c r="K163" s="2"/>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164" s="2"/>
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
+      <c r="H164" s="2"/>
+      <c r="I164" s="2"/>
+      <c r="J164" s="2"/>
+      <c r="K164" s="2"/>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165" s="2"/>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
+      <c r="H165" s="2"/>
+      <c r="I165" s="2"/>
+      <c r="J165" s="2"/>
+      <c r="K165" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5761,6 +5935,8 @@
     <hyperlink ref="F129" r:id="rId91" display="https://codeforces.com/problemset/problem/1207/D"/>
     <hyperlink ref="F130" r:id="rId92" display="https://codeforces.com/problemset/problem/1775/D"/>
     <hyperlink ref="F131" r:id="rId93" display="https://codeforces.com/problemset/problem/1108/E1"/>
+    <hyperlink ref="F132" r:id="rId94" display="https://codeforces.com/contest/1108/problem/E2"/>
+    <hyperlink ref="F133" r:id="rId95" display="https://codeforces.com/problemset/problem/1179/B"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="273">
   <si>
     <t>Day</t>
   </si>
@@ -955,6 +955,22 @@
   </si>
   <si>
     <t>Pretty easy greedy problem</t>
+  </si>
+  <si>
+    <t>problem thinking</t>
+  </si>
+  <si>
+    <t>https://www.pbinfo.ro/probleme/4407/partitura</t>
+  </si>
+  <si>
+    <t>I didn't knew about this math properties and I wasn't 
+able to do it, I had to look at the editorial</t>
+  </si>
+  <si>
+    <t>If a1 &gt;= a2 &gt;= a3 &gt;= ... &gt;= an then the 
+max square sum of 2 numbers chosen 
+is always (a1 + a2)^2 + (a3 + a4) ^ 2 + 
+.... + (an-1 + an) ^2</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -974,10 +990,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1018,11 +1034,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1035,6 +1073,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1042,6 +1088,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1057,69 +1126,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1134,6 +1143,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1154,6 +1170,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1166,13 +1194,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1184,151 +1338,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1353,6 +1369,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1387,24 +1412,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1416,6 +1423,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1444,139 +1460,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1589,7 +1605,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1613,6 +1629,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1938,8 +1957,8 @@
   <sheetPr/>
   <dimension ref="A1:M165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="D138" sqref="D138"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E128" workbookViewId="0">
+      <selection activeCell="K147" sqref="K147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -5414,13 +5433,23 @@
       <c r="K134" s="2"/>
     </row>
     <row r="135" spans="1:11">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
+      <c r="A135" s="2">
+        <v>41</v>
+      </c>
+      <c r="B135" s="2">
+        <v>1737</v>
+      </c>
+      <c r="C135" s="3">
+        <v>45537</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>265</v>
+      </c>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
-      <c r="G135" s="2"/>
+      <c r="G135" s="2">
+        <v>120</v>
+      </c>
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
@@ -5440,13 +5469,23 @@
       <c r="K136" s="2"/>
     </row>
     <row r="137" spans="1:11">
-      <c r="A137" s="2"/>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
+      <c r="A137" s="2">
+        <v>42</v>
+      </c>
+      <c r="B137" s="2">
+        <v>1737</v>
+      </c>
+      <c r="C137" s="3">
+        <v>45567</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>265</v>
+      </c>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
-      <c r="G137" s="2"/>
+      <c r="G137" s="2">
+        <v>120</v>
+      </c>
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
       <c r="J137" s="2"/>
@@ -5454,7 +5493,6 @@
     </row>
     <row r="138" spans="1:11">
       <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -5465,18 +5503,41 @@
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
     </row>
-    <row r="139" spans="1:11">
-      <c r="A139" s="2"/>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
+    <row r="139" ht="90" spans="1:12">
+      <c r="A139" s="2">
+        <v>43</v>
+      </c>
+      <c r="B139" s="2">
+        <v>1737</v>
+      </c>
+      <c r="C139" s="3">
+        <v>45598</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
-      <c r="I139" s="2"/>
-      <c r="J139" s="2"/>
-      <c r="K139" s="2"/>
+      <c r="F139" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G139" s="2">
+        <v>60</v>
+      </c>
+      <c r="H139" s="2">
+        <v>30</v>
+      </c>
+      <c r="I139" s="2">
+        <v>100</v>
+      </c>
+      <c r="J139" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K139" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="L139" s="9" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="140" spans="1:11">
       <c r="A140" s="2"/>
@@ -5667,11 +5728,11 @@
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G154" s="2">
         <f>SUM(G1:G153)/60</f>
-        <v>78.1</v>
+        <v>83.1</v>
       </c>
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
@@ -5685,11 +5746,11 @@
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G155" s="2">
         <f>G154/MAX(A6:A153)</f>
-        <v>1.9525</v>
+        <v>1.93255813953488</v>
       </c>
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
@@ -5716,7 +5777,7 @@
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="G157" s="2">
         <f>AVERAGEIFS(G:G,E:E,1700)</f>
@@ -5734,7 +5795,7 @@
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G158" s="2">
         <f>AVERAGEIFS(G:G,E:E,1800)</f>
@@ -5937,6 +5998,7 @@
     <hyperlink ref="F131" r:id="rId93" display="https://codeforces.com/problemset/problem/1108/E1"/>
     <hyperlink ref="F132" r:id="rId94" display="https://codeforces.com/contest/1108/problem/E2"/>
     <hyperlink ref="F133" r:id="rId95" display="https://codeforces.com/problemset/problem/1179/B"/>
+    <hyperlink ref="F139" r:id="rId96" display="https://www.pbinfo.ro/probleme/4407/partitura"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="275">
   <si>
     <t>Day</t>
   </si>
@@ -971,6 +971,13 @@
 max square sum of 2 numbers chosen 
 is always (a1 + a2)^2 + (a3 + a4) ^ 2 + 
 .... + (an-1 + an) ^2</t>
+  </si>
+  <si>
+    <t>https://www.pbinfo.ro/probleme/4394/fotbal2</t>
+  </si>
+  <si>
+    <t>Good problem, I had a bad bug because of
+an untinked soution so it costed me some time</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -990,10 +997,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1028,14 +1035,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1049,10 +1049,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1064,9 +1065,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1080,8 +1110,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1090,7 +1142,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1104,52 +1156,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1164,7 +1171,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1176,19 +1255,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1200,49 +1267,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1254,7 +1315,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,85 +1345,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1398,21 +1405,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1430,8 +1422,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1450,8 +1442,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1460,142 +1467,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1605,7 +1612,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1629,9 +1636,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1957,8 +1961,8 @@
   <sheetPr/>
   <dimension ref="A1:M165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E128" workbookViewId="0">
-      <selection activeCell="K147" sqref="K147"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C128" workbookViewId="0">
+      <selection activeCell="L140" sqref="L140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -5535,22 +5539,36 @@
       <c r="K139" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="L139" s="9" t="s">
+      <c r="L139" s="8" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" ht="45" spans="1:11">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
+      <c r="D140" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E140" s="2"/>
-      <c r="F140" s="2"/>
-      <c r="G140" s="2"/>
-      <c r="H140" s="2"/>
-      <c r="I140" s="2"/>
-      <c r="J140" s="2"/>
-      <c r="K140" s="2"/>
+      <c r="F140" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G140" s="2">
+        <v>70</v>
+      </c>
+      <c r="H140" s="2">
+        <v>100</v>
+      </c>
+      <c r="I140" s="2">
+        <v>100</v>
+      </c>
+      <c r="J140" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K140" s="5" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="141" spans="1:11">
       <c r="A141" s="2"/>
@@ -5728,11 +5746,11 @@
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G154" s="2">
         <f>SUM(G1:G153)/60</f>
-        <v>83.1</v>
+        <v>84.2666666666667</v>
       </c>
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
@@ -5746,11 +5764,11 @@
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G155" s="2">
         <f>G154/MAX(A6:A153)</f>
-        <v>1.93255813953488</v>
+        <v>1.95968992248062</v>
       </c>
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
@@ -5777,7 +5795,7 @@
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G157" s="2">
         <f>AVERAGEIFS(G:G,E:E,1700)</f>
@@ -5795,7 +5813,7 @@
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G158" s="2">
         <f>AVERAGEIFS(G:G,E:E,1800)</f>
@@ -5999,6 +6017,7 @@
     <hyperlink ref="F132" r:id="rId94" display="https://codeforces.com/contest/1108/problem/E2"/>
     <hyperlink ref="F133" r:id="rId95" display="https://codeforces.com/problemset/problem/1179/B"/>
     <hyperlink ref="F139" r:id="rId96" display="https://www.pbinfo.ro/probleme/4407/partitura"/>
+    <hyperlink ref="F140" r:id="rId97" display="https://www.pbinfo.ro/probleme/4394/fotbal2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="278">
   <si>
     <t>Day</t>
   </si>
@@ -978,6 +978,16 @@
   <si>
     <t>Good problem, I had a bad bug because of
 an untinked soution so it costed me some time</t>
+  </si>
+  <si>
+    <t>https://www.pbinfo.ro/probleme/3849/exponentiere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I found out that a^n % p ==
+ a ^ (n % (p - 1)) % p </t>
+  </si>
+  <si>
+    <t>a^n % p == a ^ (n % (p - 1)) % p</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -997,10 +1007,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1035,15 +1045,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1054,6 +1063,13 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1073,7 +1089,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1087,16 +1103,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1110,8 +1134,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1125,38 +1157,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1171,13 +1181,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1189,7 +1199,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1207,7 +1235,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1219,7 +1247,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1231,31 +1277,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1267,13 +1289,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1285,25 +1319,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1315,43 +1355,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1362,21 +1372,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1405,6 +1400,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1422,19 +1443,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1442,23 +1467,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1467,118 +1477,118 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1587,22 +1597,22 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1612,7 +1622,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1639,6 +1649,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1961,8 +1974,8 @@
   <sheetPr/>
   <dimension ref="A1:M165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C128" workbookViewId="0">
-      <selection activeCell="L140" sqref="L140"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E128" workbookViewId="0">
+      <selection activeCell="L142" sqref="L142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -5570,18 +5583,35 @@
         <v>270</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" ht="30" spans="1:12">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
+      <c r="D141" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E141" s="2"/>
-      <c r="F141" s="2"/>
-      <c r="G141" s="2"/>
-      <c r="H141" s="2"/>
-      <c r="I141" s="2"/>
-      <c r="J141" s="2"/>
-      <c r="K141" s="2"/>
+      <c r="F141" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="G141" s="2">
+        <v>20</v>
+      </c>
+      <c r="H141" s="2">
+        <v>0</v>
+      </c>
+      <c r="I141" s="2">
+        <v>100</v>
+      </c>
+      <c r="J141" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K141" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="L141" s="9" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="142" spans="1:11">
       <c r="A142" s="2"/>
@@ -5746,11 +5776,11 @@
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G154" s="2">
         <f>SUM(G1:G153)/60</f>
-        <v>84.2666666666667</v>
+        <v>84.6</v>
       </c>
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
@@ -5764,11 +5794,11 @@
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G155" s="2">
         <f>G154/MAX(A6:A153)</f>
-        <v>1.95968992248062</v>
+        <v>1.96744186046512</v>
       </c>
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
@@ -5795,7 +5825,7 @@
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G157" s="2">
         <f>AVERAGEIFS(G:G,E:E,1700)</f>
@@ -5813,7 +5843,7 @@
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G158" s="2">
         <f>AVERAGEIFS(G:G,E:E,1800)</f>
@@ -6018,6 +6048,7 @@
     <hyperlink ref="F133" r:id="rId95" display="https://codeforces.com/problemset/problem/1179/B"/>
     <hyperlink ref="F139" r:id="rId96" display="https://www.pbinfo.ro/probleme/4407/partitura"/>
     <hyperlink ref="F140" r:id="rId97" display="https://www.pbinfo.ro/probleme/4394/fotbal2"/>
+    <hyperlink ref="F141" r:id="rId98" display="https://www.pbinfo.ro/probleme/3849/exponentiere"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="280">
   <si>
     <t>Day</t>
   </si>
@@ -988,6 +988,13 @@
   </si>
   <si>
     <t>a^n % p == a ^ (n % (p - 1)) % p</t>
+  </si>
+  <si>
+    <t>https://www.pbinfo.ro/probleme/4392/arhitect</t>
+  </si>
+  <si>
+    <t>Intersting problem, I really needed those 
+math classes, lool</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -1009,8 +1016,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1044,8 +1051,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1059,7 +1090,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1068,6 +1115,42 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1082,29 +1165,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1113,60 +1174,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1181,7 +1188,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1193,7 +1260,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1205,19 +1338,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1229,19 +1350,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1253,115 +1362,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1372,80 +1379,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1472,123 +1405,197 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1597,22 +1604,22 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1622,7 +1629,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1649,9 +1656,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1974,8 +1978,8 @@
   <sheetPr/>
   <dimension ref="A1:M165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E128" workbookViewId="0">
-      <selection activeCell="L142" sqref="L142"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="H146" sqref="H146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -5609,22 +5613,36 @@
       <c r="K141" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="L141" s="9" t="s">
+      <c r="L141" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" ht="30" spans="1:11">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
+      <c r="D142" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E142" s="2"/>
-      <c r="F142" s="2"/>
-      <c r="G142" s="2"/>
-      <c r="H142" s="2"/>
-      <c r="I142" s="2"/>
-      <c r="J142" s="2"/>
-      <c r="K142" s="2"/>
+      <c r="F142" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G142" s="2">
+        <v>40</v>
+      </c>
+      <c r="H142" s="2">
+        <v>100</v>
+      </c>
+      <c r="I142" s="2">
+        <v>100</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K142" s="5" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="143" spans="1:11">
       <c r="A143" s="2"/>
@@ -5776,11 +5794,11 @@
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G154" s="2">
         <f>SUM(G1:G153)/60</f>
-        <v>84.6</v>
+        <v>85.2666666666667</v>
       </c>
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
@@ -5794,11 +5812,11 @@
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G155" s="2">
         <f>G154/MAX(A6:A153)</f>
-        <v>1.96744186046512</v>
+        <v>1.98294573643411</v>
       </c>
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
@@ -5825,7 +5843,7 @@
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G157" s="2">
         <f>AVERAGEIFS(G:G,E:E,1700)</f>
@@ -5843,7 +5861,7 @@
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G158" s="2">
         <f>AVERAGEIFS(G:G,E:E,1800)</f>
@@ -6049,6 +6067,7 @@
     <hyperlink ref="F139" r:id="rId96" display="https://www.pbinfo.ro/probleme/4407/partitura"/>
     <hyperlink ref="F140" r:id="rId97" display="https://www.pbinfo.ro/probleme/4394/fotbal2"/>
     <hyperlink ref="F141" r:id="rId98" display="https://www.pbinfo.ro/probleme/3849/exponentiere"/>
+    <hyperlink ref="F142" r:id="rId99" display="https://www.pbinfo.ro/probleme/4392/arhitect"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="287">
   <si>
     <t>Day</t>
   </si>
@@ -995,6 +995,30 @@
   <si>
     <t>Intersting problem, I really needed those 
 math classes, lool</t>
+  </si>
+  <si>
+    <t>13/02/2024</t>
+  </si>
+  <si>
+    <t>https://www.pbinfo.ro/probleme/2017/p2017</t>
+  </si>
+  <si>
+    <t>Great problem actually, I liked it, kinda slow because
+of multiple cases and I didn't know how to
+aproach it at first</t>
+  </si>
+  <si>
+    <t>https://www.pbinfo.ro/probleme/594/eroziune</t>
+  </si>
+  <si>
+    <t>I purposefully did a more optimized solution</t>
+  </si>
+  <si>
+    <t>https://www.pbinfo.ro/probleme/3499/secv011</t>
+  </si>
+  <si>
+    <t>This was a nice sequence and prefix sum 
+problem</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -1015,9 +1039,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1051,9 +1075,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1061,45 +1084,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1114,9 +1098,41 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1135,8 +1151,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1150,22 +1189,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1173,7 +1197,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1188,7 +1212,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1200,7 +1224,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1218,13 +1248,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1242,25 +1314,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1272,13 +1350,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1290,79 +1386,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1382,26 +1406,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1421,11 +1430,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1445,17 +1460,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1469,13 +1489,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1487,136 +1511,136 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1976,10 +2000,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M165"/>
+  <dimension ref="A1:M172"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="H146" sqref="H146"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="F155" sqref="F155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -5658,9 +5682,15 @@
       <c r="K143" s="2"/>
     </row>
     <row r="144" spans="1:11">
-      <c r="A144" s="2"/>
-      <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
+      <c r="A144" s="2">
+        <v>44</v>
+      </c>
+      <c r="B144" s="2">
+        <v>1771</v>
+      </c>
+      <c r="C144" s="3">
+        <v>45628</v>
+      </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
@@ -5683,44 +5713,92 @@
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
     </row>
-    <row r="146" spans="1:11">
-      <c r="A146" s="2"/>
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
+    <row r="146" ht="60" spans="1:11">
+      <c r="A146" s="2">
+        <v>45</v>
+      </c>
+      <c r="B146" s="2">
+        <v>1771</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E146" s="2"/>
-      <c r="F146" s="2"/>
-      <c r="G146" s="2"/>
-      <c r="H146" s="2"/>
-      <c r="I146" s="2"/>
-      <c r="J146" s="2"/>
-      <c r="K146" s="2"/>
+      <c r="F146" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="G146" s="2">
+        <v>70</v>
+      </c>
+      <c r="H146" s="2">
+        <v>100</v>
+      </c>
+      <c r="I146" s="2">
+        <v>100</v>
+      </c>
+      <c r="J146" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K146" s="5" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="147" spans="1:11">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
+      <c r="D147" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E147" s="2"/>
-      <c r="F147" s="2"/>
-      <c r="G147" s="2"/>
-      <c r="H147" s="2"/>
-      <c r="I147" s="2"/>
-      <c r="J147" s="2"/>
-      <c r="K147" s="2"/>
-    </row>
-    <row r="148" spans="1:11">
+      <c r="F147" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="G147" s="2">
+        <v>35</v>
+      </c>
+      <c r="H147" s="2">
+        <v>100</v>
+      </c>
+      <c r="I147" s="2">
+        <v>100</v>
+      </c>
+      <c r="J147" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K147" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="148" ht="30" spans="1:11">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
+      <c r="D148" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E148" s="2"/>
-      <c r="F148" s="2"/>
-      <c r="G148" s="2"/>
-      <c r="H148" s="2"/>
-      <c r="I148" s="2"/>
-      <c r="J148" s="2"/>
-      <c r="K148" s="2"/>
+      <c r="F148" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G148" s="2">
+        <v>16</v>
+      </c>
+      <c r="H148" s="2">
+        <v>100</v>
+      </c>
+      <c r="I148" s="2">
+        <v>100</v>
+      </c>
+      <c r="J148" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K148" s="5" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="149" spans="1:11">
       <c r="A149" s="2"/>
@@ -5793,13 +5871,8 @@
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
-      <c r="F154" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="G154" s="2">
-        <f>SUM(G1:G153)/60</f>
-        <v>85.2666666666667</v>
-      </c>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
@@ -5811,13 +5884,8 @@
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
-      <c r="F155" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="G155" s="2">
-        <f>G154/MAX(A6:A153)</f>
-        <v>1.98294573643411</v>
-      </c>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
       <c r="J155" s="2"/>
@@ -5842,13 +5910,8 @@
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
-      <c r="F157" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="G157" s="2">
-        <f>AVERAGEIFS(G:G,E:E,1700)</f>
-        <v>31.58</v>
-      </c>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
       <c r="J157" s="2"/>
@@ -5860,13 +5923,8 @@
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
-      <c r="F158" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="G158" s="2">
-        <f>AVERAGEIFS(G:G,E:E,1800)</f>
-        <v>42.7142857142857</v>
-      </c>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
       <c r="J158" s="2"/>
@@ -5904,8 +5962,13 @@
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
-      <c r="F161" s="2"/>
-      <c r="G161" s="2"/>
+      <c r="F161" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G161" s="2">
+        <f>SUM(G1:G160)/60</f>
+        <v>87.2833333333333</v>
+      </c>
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
@@ -5917,8 +5980,13 @@
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
-      <c r="F162" s="2"/>
-      <c r="G162" s="2"/>
+      <c r="F162" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="G162" s="2">
+        <f>G161/MAX(A6:A160)</f>
+        <v>1.93962962962963</v>
+      </c>
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
       <c r="J162" s="2"/>
@@ -5943,8 +6011,13 @@
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
-      <c r="F164" s="2"/>
-      <c r="G164" s="2"/>
+      <c r="F164" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G164" s="2">
+        <f>AVERAGEIFS(G:G,E:E,1700)</f>
+        <v>31.58</v>
+      </c>
       <c r="H164" s="2"/>
       <c r="I164" s="2"/>
       <c r="J164" s="2"/>
@@ -5956,12 +6029,108 @@
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
-      <c r="F165" s="2"/>
-      <c r="G165" s="2"/>
+      <c r="F165" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G165" s="2">
+        <f>AVERAGEIFS(G:G,E:E,1800)</f>
+        <v>42.7142857142857</v>
+      </c>
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166" s="2"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="2"/>
+      <c r="J166" s="2"/>
+      <c r="K166" s="2"/>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
+      <c r="H167" s="2"/>
+      <c r="I167" s="2"/>
+      <c r="J167" s="2"/>
+      <c r="K167" s="2"/>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168" s="2"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
+      <c r="H168" s="2"/>
+      <c r="I168" s="2"/>
+      <c r="J168" s="2"/>
+      <c r="K168" s="2"/>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169" s="2"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
+      <c r="H169" s="2"/>
+      <c r="I169" s="2"/>
+      <c r="J169" s="2"/>
+      <c r="K169" s="2"/>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170" s="2"/>
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
+      <c r="I170" s="2"/>
+      <c r="J170" s="2"/>
+      <c r="K170" s="2"/>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171" s="2"/>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
+      <c r="H171" s="2"/>
+      <c r="I171" s="2"/>
+      <c r="J171" s="2"/>
+      <c r="K171" s="2"/>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172" s="2"/>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2"/>
+      <c r="H172" s="2"/>
+      <c r="I172" s="2"/>
+      <c r="J172" s="2"/>
+      <c r="K172" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6068,6 +6237,9 @@
     <hyperlink ref="F140" r:id="rId97" display="https://www.pbinfo.ro/probleme/4394/fotbal2"/>
     <hyperlink ref="F141" r:id="rId98" display="https://www.pbinfo.ro/probleme/3849/exponentiere"/>
     <hyperlink ref="F142" r:id="rId99" display="https://www.pbinfo.ro/probleme/4392/arhitect"/>
+    <hyperlink ref="F146" r:id="rId100" display="https://www.pbinfo.ro/probleme/2017/p2017"/>
+    <hyperlink ref="F147" r:id="rId101" display="https://www.pbinfo.ro/probleme/594/eroziune"/>
+    <hyperlink ref="F148" r:id="rId102" display="https://www.pbinfo.ro/probleme/3499/secv011"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="290">
   <si>
     <t>Day</t>
   </si>
@@ -1019,6 +1019,18 @@
   <si>
     <t>This was a nice sequence and prefix sum 
 problem</t>
+  </si>
+  <si>
+    <t>https://www.pbinfo.ro/probleme/4406/fibosnek</t>
+  </si>
+  <si>
+    <t>Binary Search + Memory
+Optimization</t>
+  </si>
+  <si>
+    <t>Great problem for memory optimization, I just
+got a small hint on compressing the needed
+memory, nothing else</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -1038,10 +1050,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1076,13 +1088,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1090,10 +1095,25 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1113,23 +1133,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1145,9 +1149,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1161,14 +1202,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1176,28 +1210,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1212,19 +1224,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1242,7 +1248,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1254,13 +1290,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1272,109 +1386,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1386,13 +1398,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1403,6 +1415,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1430,36 +1457,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1480,6 +1477,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1488,162 +1515,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2002,8 +2014,8 @@
   <sheetPr/>
   <dimension ref="A1:M172"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="F155" sqref="F155"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="F152" sqref="F152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -5800,18 +5812,32 @@
         <v>282</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" ht="60" spans="1:11">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
+      <c r="D149" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E149" s="2"/>
-      <c r="F149" s="2"/>
-      <c r="G149" s="2"/>
-      <c r="H149" s="2"/>
-      <c r="I149" s="2"/>
-      <c r="J149" s="2"/>
-      <c r="K149" s="2"/>
+      <c r="F149" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="G149" s="2">
+        <v>70</v>
+      </c>
+      <c r="H149" s="2">
+        <v>90</v>
+      </c>
+      <c r="I149" s="2">
+        <v>100</v>
+      </c>
+      <c r="J149" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="K149" s="5" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="150" spans="1:11">
       <c r="A150" s="2"/>
@@ -5963,11 +5989,11 @@
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G161" s="2">
         <f>SUM(G1:G160)/60</f>
-        <v>87.2833333333333</v>
+        <v>88.45</v>
       </c>
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
@@ -5981,11 +6007,11 @@
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G162" s="2">
         <f>G161/MAX(A6:A160)</f>
-        <v>1.93962962962963</v>
+        <v>1.96555555555556</v>
       </c>
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
@@ -6012,7 +6038,7 @@
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="G164" s="2">
         <f>AVERAGEIFS(G:G,E:E,1700)</f>
@@ -6030,7 +6056,7 @@
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G165" s="2">
         <f>AVERAGEIFS(G:G,E:E,1800)</f>
@@ -6240,6 +6266,7 @@
     <hyperlink ref="F146" r:id="rId100" display="https://www.pbinfo.ro/probleme/2017/p2017"/>
     <hyperlink ref="F147" r:id="rId101" display="https://www.pbinfo.ro/probleme/594/eroziune"/>
     <hyperlink ref="F148" r:id="rId102" display="https://www.pbinfo.ro/probleme/3499/secv011"/>
+    <hyperlink ref="F149" r:id="rId103" display="https://www.pbinfo.ro/probleme/4406/fibosnek"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="292">
   <si>
     <t>Day</t>
   </si>
@@ -1031,6 +1031,12 @@
     <t>Great problem for memory optimization, I just
 got a small hint on compressing the needed
 memory, nothing else</t>
+  </si>
+  <si>
+    <t>https://www.pbinfo.ro/probleme/4409/castel4</t>
+  </si>
+  <si>
+    <t>Easy Greedy Problem</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -1052,8 +1058,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1087,6 +1093,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -1102,23 +1116,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1126,14 +1132,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1149,6 +1155,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1156,7 +1185,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1177,39 +1213,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1221,6 +1227,12 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1236,13 +1248,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1254,25 +1302,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1290,37 +1380,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1332,79 +1404,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1415,6 +1421,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1436,6 +1457,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1443,27 +1473,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1492,26 +1511,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1520,142 +1526,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2015,7 +2021,7 @@
   <dimension ref="A1:M172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="F152" sqref="F152"/>
+      <selection activeCell="L151" sqref="L151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -5853,17 +5859,35 @@
       <c r="K150" s="2"/>
     </row>
     <row r="151" spans="1:11">
-      <c r="A151" s="2"/>
-      <c r="B151" s="2"/>
+      <c r="A151" s="2">
+        <v>46</v>
+      </c>
+      <c r="B151" s="2">
+        <v>1771</v>
+      </c>
       <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
+      <c r="D151" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E151" s="2"/>
-      <c r="F151" s="2"/>
-      <c r="G151" s="2"/>
-      <c r="H151" s="2"/>
-      <c r="I151" s="2"/>
-      <c r="J151" s="2"/>
-      <c r="K151" s="2"/>
+      <c r="F151" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="G151" s="2">
+        <v>10</v>
+      </c>
+      <c r="H151" s="2">
+        <v>100</v>
+      </c>
+      <c r="I151" s="2">
+        <v>100</v>
+      </c>
+      <c r="J151" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K151" s="2" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="152" spans="1:11">
       <c r="A152" s="2"/>
@@ -5989,11 +6013,11 @@
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G161" s="2">
         <f>SUM(G1:G160)/60</f>
-        <v>88.45</v>
+        <v>88.6166666666667</v>
       </c>
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
@@ -6007,11 +6031,11 @@
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G162" s="2">
         <f>G161/MAX(A6:A160)</f>
-        <v>1.96555555555556</v>
+        <v>1.92644927536232</v>
       </c>
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
@@ -6038,7 +6062,7 @@
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G164" s="2">
         <f>AVERAGEIFS(G:G,E:E,1700)</f>
@@ -6056,7 +6080,7 @@
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G165" s="2">
         <f>AVERAGEIFS(G:G,E:E,1800)</f>
@@ -6267,6 +6291,7 @@
     <hyperlink ref="F147" r:id="rId101" display="https://www.pbinfo.ro/probleme/594/eroziune"/>
     <hyperlink ref="F148" r:id="rId102" display="https://www.pbinfo.ro/probleme/3499/secv011"/>
     <hyperlink ref="F149" r:id="rId103" display="https://www.pbinfo.ro/probleme/4406/fibosnek"/>
+    <hyperlink ref="F151" r:id="rId104" display="https://www.pbinfo.ro/probleme/4409/castel4"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="293">
   <si>
     <t>Day</t>
   </si>
@@ -1037,6 +1037,9 @@
   </si>
   <si>
     <t>Easy Greedy Problem</t>
+  </si>
+  <si>
+    <t>https://www.pbinfo.ro/probleme/4408/aeriana</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -1056,9 +1059,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -1093,18 +1096,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1116,25 +1119,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1153,24 +1150,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1192,14 +1181,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1207,15 +1218,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1230,25 +1233,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,19 +1257,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1290,13 +1287,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1308,7 +1299,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1320,43 +1317,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1368,13 +1359,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1392,13 +1383,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1410,7 +1395,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1421,21 +1424,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1457,8 +1445,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1468,6 +1456,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1483,15 +1486,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1521,147 +1515,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2021,7 +2024,7 @@
   <dimension ref="A1:M172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="L151" sqref="L151"/>
+      <selection activeCell="L152" sqref="L152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -5893,14 +5896,28 @@
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
+      <c r="D152" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E152" s="2"/>
-      <c r="F152" s="2"/>
-      <c r="G152" s="2"/>
-      <c r="H152" s="2"/>
-      <c r="I152" s="2"/>
-      <c r="J152" s="2"/>
-      <c r="K152" s="2"/>
+      <c r="F152" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="G152" s="2">
+        <v>22</v>
+      </c>
+      <c r="H152" s="2">
+        <v>100</v>
+      </c>
+      <c r="I152" s="2">
+        <v>100</v>
+      </c>
+      <c r="J152" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K152" s="2" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="153" spans="1:11">
       <c r="A153" s="2"/>
@@ -6013,11 +6030,11 @@
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G161" s="2">
         <f>SUM(G1:G160)/60</f>
-        <v>88.6166666666667</v>
+        <v>88.9833333333333</v>
       </c>
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
@@ -6031,11 +6048,11 @@
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G162" s="2">
         <f>G161/MAX(A6:A160)</f>
-        <v>1.92644927536232</v>
+        <v>1.93442028985507</v>
       </c>
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
@@ -6062,7 +6079,7 @@
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G164" s="2">
         <f>AVERAGEIFS(G:G,E:E,1700)</f>
@@ -6080,7 +6097,7 @@
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G165" s="2">
         <f>AVERAGEIFS(G:G,E:E,1800)</f>
@@ -6292,6 +6309,7 @@
     <hyperlink ref="F148" r:id="rId102" display="https://www.pbinfo.ro/probleme/3499/secv011"/>
     <hyperlink ref="F149" r:id="rId103" display="https://www.pbinfo.ro/probleme/4406/fibosnek"/>
     <hyperlink ref="F151" r:id="rId104" display="https://www.pbinfo.ro/probleme/4409/castel4"/>
+    <hyperlink ref="F152" r:id="rId105" display="https://www.pbinfo.ro/probleme/4408/aeriana"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="296">
   <si>
     <t>Day</t>
   </si>
@@ -1040,6 +1040,15 @@
   </si>
   <si>
     <t>https://www.pbinfo.ro/probleme/4408/aeriana</t>
+  </si>
+  <si>
+    <t>https://www.pbinfo.ro/probleme/4402/ciocolata1</t>
+  </si>
+  <si>
+    <t>TwoPointers</t>
+  </si>
+  <si>
+    <t>Easy Two Pointers Problem</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -1060,9 +1069,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1096,21 +1105,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1119,8 +1113,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1135,8 +1158,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1144,14 +1182,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1166,17 +1204,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1188,7 +1219,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1196,29 +1227,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1239,7 +1248,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1251,13 +1296,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1269,19 +1356,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1293,43 +1392,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1341,79 +1416,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1445,8 +1454,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1507,6 +1516,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1515,156 +1533,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2021,10 +2030,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M172"/>
+  <dimension ref="A1:M192"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="L152" sqref="L152"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="F174" sqref="F174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -5933,17 +5942,35 @@
       <c r="K153" s="2"/>
     </row>
     <row r="154" spans="1:11">
-      <c r="A154" s="2"/>
-      <c r="B154" s="2"/>
+      <c r="A154" s="2">
+        <v>47</v>
+      </c>
+      <c r="B154" s="2">
+        <v>1771</v>
+      </c>
       <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
+      <c r="D154" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E154" s="2"/>
-      <c r="F154" s="2"/>
-      <c r="G154" s="2"/>
-      <c r="H154" s="2"/>
-      <c r="I154" s="2"/>
-      <c r="J154" s="2"/>
-      <c r="K154" s="2"/>
+      <c r="F154" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G154" s="2">
+        <v>10</v>
+      </c>
+      <c r="H154" s="2">
+        <v>100</v>
+      </c>
+      <c r="I154" s="2">
+        <v>100</v>
+      </c>
+      <c r="J154" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="K154" s="2" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="155" spans="1:11">
       <c r="A155" s="2"/>
@@ -6029,13 +6056,8 @@
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
-      <c r="F161" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G161" s="2">
-        <f>SUM(G1:G160)/60</f>
-        <v>88.9833333333333</v>
-      </c>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
@@ -6047,13 +6069,8 @@
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
-      <c r="F162" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="G162" s="2">
-        <f>G161/MAX(A6:A160)</f>
-        <v>1.93442028985507</v>
-      </c>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
       <c r="J162" s="2"/>
@@ -6078,13 +6095,8 @@
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
-      <c r="F164" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="G164" s="2">
-        <f>AVERAGEIFS(G:G,E:E,1700)</f>
-        <v>31.58</v>
-      </c>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
       <c r="H164" s="2"/>
       <c r="I164" s="2"/>
       <c r="J164" s="2"/>
@@ -6096,13 +6108,8 @@
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
-      <c r="F165" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="G165" s="2">
-        <f>AVERAGEIFS(G:G,E:E,1800)</f>
-        <v>42.7142857142857</v>
-      </c>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
       <c r="J165" s="2"/>
@@ -6198,6 +6205,286 @@
       <c r="I172" s="2"/>
       <c r="J172" s="2"/>
       <c r="K172" s="2"/>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173" s="2"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
+      <c r="H173" s="2"/>
+      <c r="I173" s="2"/>
+      <c r="J173" s="2"/>
+      <c r="K173" s="2"/>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174" s="2"/>
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
+      <c r="G174" s="2"/>
+      <c r="H174" s="2"/>
+      <c r="I174" s="2"/>
+      <c r="J174" s="2"/>
+      <c r="K174" s="2"/>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175" s="2"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="2"/>
+      <c r="H175" s="2"/>
+      <c r="I175" s="2"/>
+      <c r="J175" s="2"/>
+      <c r="K175" s="2"/>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176" s="2"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+      <c r="G176" s="2"/>
+      <c r="H176" s="2"/>
+      <c r="I176" s="2"/>
+      <c r="J176" s="2"/>
+      <c r="K176" s="2"/>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177" s="2"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
+      <c r="E177" s="2"/>
+      <c r="F177" s="2"/>
+      <c r="G177" s="2"/>
+      <c r="H177" s="2"/>
+      <c r="I177" s="2"/>
+      <c r="J177" s="2"/>
+      <c r="K177" s="2"/>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178" s="2"/>
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2"/>
+      <c r="G178" s="2"/>
+      <c r="H178" s="2"/>
+      <c r="I178" s="2"/>
+      <c r="J178" s="2"/>
+      <c r="K178" s="2"/>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179" s="2"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
+      <c r="G179" s="2"/>
+      <c r="H179" s="2"/>
+      <c r="I179" s="2"/>
+      <c r="J179" s="2"/>
+      <c r="K179" s="2"/>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180" s="2"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="2"/>
+      <c r="G180" s="2"/>
+      <c r="H180" s="2"/>
+      <c r="I180" s="2"/>
+      <c r="J180" s="2"/>
+      <c r="K180" s="2"/>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181" s="2"/>
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G181" s="2">
+        <f>SUM(G1:G180)/60</f>
+        <v>89.15</v>
+      </c>
+      <c r="H181" s="2"/>
+      <c r="I181" s="2"/>
+      <c r="J181" s="2"/>
+      <c r="K181" s="2"/>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182" s="2"/>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="G182" s="2">
+        <f>G181/MAX(A6:A180)</f>
+        <v>1.8968085106383</v>
+      </c>
+      <c r="H182" s="2"/>
+      <c r="I182" s="2"/>
+      <c r="J182" s="2"/>
+      <c r="K182" s="2"/>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183" s="2"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+      <c r="G183" s="2"/>
+      <c r="H183" s="2"/>
+      <c r="I183" s="2"/>
+      <c r="J183" s="2"/>
+      <c r="K183" s="2"/>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184" s="2"/>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
+      <c r="F184" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="G184" s="2">
+        <f>AVERAGEIFS(G:G,E:E,1700)</f>
+        <v>31.58</v>
+      </c>
+      <c r="H184" s="2"/>
+      <c r="I184" s="2"/>
+      <c r="J184" s="2"/>
+      <c r="K184" s="2"/>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185" s="2"/>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G185" s="2">
+        <f>AVERAGEIFS(G:G,E:E,1800)</f>
+        <v>42.7142857142857</v>
+      </c>
+      <c r="H185" s="2"/>
+      <c r="I185" s="2"/>
+      <c r="J185" s="2"/>
+      <c r="K185" s="2"/>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186" s="2"/>
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
+      <c r="F186" s="2"/>
+      <c r="G186" s="2"/>
+      <c r="H186" s="2"/>
+      <c r="I186" s="2"/>
+      <c r="J186" s="2"/>
+      <c r="K186" s="2"/>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187" s="2"/>
+      <c r="B187" s="2"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="2"/>
+      <c r="E187" s="2"/>
+      <c r="F187" s="2"/>
+      <c r="G187" s="2"/>
+      <c r="H187" s="2"/>
+      <c r="I187" s="2"/>
+      <c r="J187" s="2"/>
+      <c r="K187" s="2"/>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188" s="2"/>
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
+      <c r="E188" s="2"/>
+      <c r="F188" s="2"/>
+      <c r="G188" s="2"/>
+      <c r="H188" s="2"/>
+      <c r="I188" s="2"/>
+      <c r="J188" s="2"/>
+      <c r="K188" s="2"/>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189" s="2"/>
+      <c r="B189" s="2"/>
+      <c r="C189" s="2"/>
+      <c r="D189" s="2"/>
+      <c r="E189" s="2"/>
+      <c r="F189" s="2"/>
+      <c r="G189" s="2"/>
+      <c r="H189" s="2"/>
+      <c r="I189" s="2"/>
+      <c r="J189" s="2"/>
+      <c r="K189" s="2"/>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190" s="2"/>
+      <c r="B190" s="2"/>
+      <c r="C190" s="2"/>
+      <c r="D190" s="2"/>
+      <c r="E190" s="2"/>
+      <c r="F190" s="2"/>
+      <c r="G190" s="2"/>
+      <c r="H190" s="2"/>
+      <c r="I190" s="2"/>
+      <c r="J190" s="2"/>
+      <c r="K190" s="2"/>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191" s="2"/>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
+      <c r="H191" s="2"/>
+      <c r="I191" s="2"/>
+      <c r="J191" s="2"/>
+      <c r="K191" s="2"/>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192" s="2"/>
+      <c r="B192" s="2"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
+      <c r="G192" s="2"/>
+      <c r="H192" s="2"/>
+      <c r="I192" s="2"/>
+      <c r="J192" s="2"/>
+      <c r="K192" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6310,6 +6597,7 @@
     <hyperlink ref="F149" r:id="rId103" display="https://www.pbinfo.ro/probleme/4406/fibosnek"/>
     <hyperlink ref="F151" r:id="rId104" display="https://www.pbinfo.ro/probleme/4409/castel4"/>
     <hyperlink ref="F152" r:id="rId105" display="https://www.pbinfo.ro/probleme/4408/aeriana"/>
+    <hyperlink ref="F154" r:id="rId106" display="https://www.pbinfo.ro/probleme/4402/ciocolata1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="298">
   <si>
     <t>Day</t>
   </si>
@@ -1049,6 +1049,12 @@
   </si>
   <si>
     <t>Easy Two Pointers Problem</t>
+  </si>
+  <si>
+    <t>https://www.pbinfo.ro/probleme/4405/unificare</t>
+  </si>
+  <si>
+    <t>Interesting fast update greedy problem</t>
   </si>
   <si>
     <t>Total time spent this year in hours:</t>
@@ -1070,8 +1076,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1106,32 +1112,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1150,9 +1141,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1167,6 +1187,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1175,21 +1217,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1210,28 +1238,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1242,7 +1248,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1254,13 +1326,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1272,31 +1344,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1308,25 +1356,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1338,49 +1368,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1392,19 +1392,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1422,7 +1410,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1433,30 +1439,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1484,6 +1466,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1495,6 +1486,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1513,167 +1539,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-   